--- a/eq_log/general equipment log.xlsx
+++ b/eq_log/general equipment log.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
   <si>
     <t>дата</t>
   </si>
@@ -31,7 +31,7 @@
     <t>причина дефекту/невідповідності</t>
   </si>
   <si>
-    <t>кількість ударів при заміні аплікатора</t>
+    <t>кількість циклів при заміні запчастин</t>
   </si>
   <si>
     <t>кільксть ударів за місяць</t>
@@ -61,15 +61,21 @@
     <t>30</t>
   </si>
   <si>
+    <t>09/02/2018</t>
+  </si>
+  <si>
+    <t>Асиметрія контакту</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
     <t>**</t>
   </si>
   <si>
     <t>номер Komax</t>
   </si>
   <si>
-    <t>кількість циклів при заміні аплікатора</t>
-  </si>
-  <si>
     <t>кільксть циклів за місяць</t>
   </si>
   <si>
@@ -83,6 +89,9 @@
   </si>
   <si>
     <t>Komax Alpha 355 / 355 S</t>
+  </si>
+  <si>
+    <t>1337</t>
   </si>
   <si>
     <t>номер зварки</t>
@@ -270,7 +279,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
@@ -290,8 +299,6 @@
     <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="5" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -611,22 +618,22 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="9" width="10.5703125"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="9" width="19.28515625"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="7" width="10.5703125"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="7" width="19.28515625"/>
     <col bestFit="1" customWidth="1" max="3" min="3" style="2" width="21"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" style="9" width="34.85546875"/>
-    <col customWidth="1" max="5" min="5" style="15" width="34.85546875"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" style="15" width="25.140625"/>
-    <col customWidth="1" max="7" min="7" style="10" width="23.7109375"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" style="10" width="11.28515625"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" style="7" width="34.85546875"/>
+    <col customWidth="1" max="5" min="5" style="13" width="34.85546875"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" style="13" width="25.140625"/>
+    <col customWidth="1" max="7" min="7" style="8" width="23.7109375"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" style="8" width="11.28515625"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="29.45" r="1" s="10" spans="1:9" thickBot="1">
+    <row customHeight="1" ht="29.45" r="1" s="8" spans="1:9" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -639,14 +646,14 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="n"/>
-      <c r="H1" s="12" t="s">
+      <c r="G1" s="9" t="n"/>
+      <c r="H1" s="10" t="s">
         <v>6</v>
       </c>
     </row>
@@ -654,7 +661,7 @@
       <c r="C2" s="6" t="n"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
@@ -690,6 +697,23 @@
     <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -707,30 +731,30 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="9" width="10.5703125"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="9" width="19.28515625"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="7" width="10.5703125"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="7" width="19.28515625"/>
     <col bestFit="1" customWidth="1" max="3" min="3" style="2" width="21"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" style="9" width="34.85546875"/>
-    <col customWidth="1" max="5" min="5" style="15" width="34.85546875"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" style="15" width="25.140625"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" style="10" width="23.5703125"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" style="10" width="22.5703125"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" style="7" width="34.85546875"/>
+    <col customWidth="1" max="5" min="5" style="13" width="34.85546875"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" style="13" width="25.140625"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" style="8" width="23.5703125"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" style="8" width="22.5703125"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="30" r="1" s="10" spans="1:7">
+    <row customHeight="1" ht="30" r="1" s="8" spans="1:7">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -738,14 +762,14 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>18</v>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -753,7 +777,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>9</v>
@@ -762,17 +786,33 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="6" t="n"/>
+      <c r="C3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -785,30 +825,31 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="9" width="10.5703125"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="9" width="19.28515625"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="7" width="10.5703125"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="7" width="19.28515625"/>
     <col bestFit="1" customWidth="1" max="3" min="3" style="2" width="21"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" style="9" width="34.85546875"/>
-    <col customWidth="1" max="5" min="5" style="15" width="34.85546875"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" style="15" width="25.140625"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" style="10" width="37.7109375"/>
-    <col customWidth="1" max="16384" min="8" style="10" width="9.140625"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" style="7" width="34.85546875"/>
+    <col customWidth="1" max="5" min="5" style="13" width="34.85546875"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" style="13" width="25.140625"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" style="8" width="37.7109375"/>
+    <col customWidth="1" max="8" min="8" style="8" width="9.140625"/>
+    <col customWidth="1" max="16384" min="9" style="8" width="9.140625"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="30" r="1" s="10" spans="1:7">
+    <row customHeight="1" ht="30" r="1" s="8" spans="1:7">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -816,14 +857,14 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>23</v>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -831,24 +872,24 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>9</v>
@@ -857,7 +898,7 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -865,16 +906,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -882,21 +923,38 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -913,27 +971,28 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="9" width="10.5703125"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="9" width="19.28515625"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="7" width="10.5703125"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="7" width="19.28515625"/>
     <col bestFit="1" customWidth="1" max="3" min="3" style="2" width="21"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" style="9" width="34.85546875"/>
-    <col customWidth="1" max="5" min="5" style="15" width="34.85546875"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" style="15" width="25.140625"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" style="10" width="37.7109375"/>
-    <col customWidth="1" max="16384" min="8" style="10" width="9.140625"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" style="7" width="34.85546875"/>
+    <col customWidth="1" max="5" min="5" style="13" width="34.85546875"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" style="13" width="25.140625"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" style="8" width="37.7109375"/>
+    <col customWidth="1" max="8" min="8" style="8" width="9.140625"/>
+    <col customWidth="1" max="16384" min="9" style="8" width="9.140625"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="30" r="1" s="10" spans="1:7">
+    <row customHeight="1" ht="30" r="1" s="8" spans="1:7">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -941,14 +1000,14 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>32</v>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -965,14 +1024,14 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
@@ -985,18 +1044,18 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>37</v>
+        <v>17</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/eq_log/general equipment log.xlsx
+++ b/eq_log/general equipment log.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
   <si>
     <t>дата</t>
   </si>
@@ -70,6 +70,21 @@
     <t>31</t>
   </si>
   <si>
+    <t>Рекваліфікація / EMPB</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>80001110</t>
+  </si>
+  <si>
+    <t>Не відповідне зварне з’єднання</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
     <t>**</t>
   </si>
   <si>
@@ -119,6 +134,24 @@
   </si>
   <si>
     <t>7</t>
+  </si>
+  <si>
+    <t>12/02/2018</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>Гострини на розрізі контакту</t>
+  </si>
+  <si>
+    <t>37</t>
   </si>
   <si>
     <t>номер обладнання</t>
@@ -713,7 +746,41 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
         <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -754,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -766,10 +833,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -777,7 +844,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>9</v>
@@ -786,10 +853,10 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -797,7 +864,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>9</v>
@@ -806,12 +873,12 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -825,7 +892,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
@@ -849,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -861,10 +928,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -872,16 +939,16 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -889,7 +956,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>9</v>
@@ -898,7 +965,7 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -906,16 +973,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -923,16 +990,16 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -940,7 +1007,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -954,7 +1021,109 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
         <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -992,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -1004,10 +1173,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1024,10 +1193,10 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1044,18 +1213,18 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/eq_log/general equipment log.xlsx
+++ b/eq_log/general equipment log.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="54">
   <si>
     <t>дата</t>
   </si>
@@ -85,6 +85,12 @@
     <t>33</t>
   </si>
   <si>
+    <t>12/02/2018</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
     <t>**</t>
   </si>
   <si>
@@ -109,6 +115,12 @@
     <t>1337</t>
   </si>
   <si>
+    <t>Обладнання не вмикається / не продукує виріб</t>
+  </si>
+  <si>
+    <t>1338</t>
+  </si>
+  <si>
     <t>номер зварки</t>
   </si>
   <si>
@@ -134,12 +146,6 @@
   </si>
   <si>
     <t>7</t>
-  </si>
-  <si>
-    <t>12/02/2018</t>
-  </si>
-  <si>
-    <t>34</t>
   </si>
   <si>
     <t>35</t>
@@ -782,6 +788,40 @@
       <c r="A8" t="s">
         <v>22</v>
       </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="21" spans="1:9">
       <c r="I21" s="1" t="n"/>
@@ -798,7 +838,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
@@ -821,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -833,10 +873,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -844,7 +884,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>9</v>
@@ -853,10 +893,10 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -864,7 +904,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>9</v>
@@ -873,12 +913,29 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -916,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -928,10 +985,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -939,16 +996,16 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -956,7 +1013,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>9</v>
@@ -965,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -973,16 +1030,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -990,16 +1047,16 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1007,7 +1064,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -1024,7 +1081,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -1041,7 +1098,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -1055,10 +1112,10 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -1067,15 +1124,15 @@
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
@@ -1084,15 +1141,15 @@
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
@@ -1101,29 +1158,29 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1161,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -1173,10 +1230,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1193,10 +1250,10 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1213,18 +1270,18 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/eq_log/general equipment log.xlsx
+++ b/eq_log/general equipment log.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="91">
   <si>
     <t>дата</t>
   </si>
@@ -91,6 +91,33 @@
     <t>34</t>
   </si>
   <si>
+    <t>13/02/2018</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>319993</t>
+  </si>
+  <si>
+    <t>320000</t>
+  </si>
+  <si>
+    <t>639999</t>
+  </si>
+  <si>
     <t>**</t>
   </si>
   <si>
@@ -121,6 +148,24 @@
     <t>1338</t>
   </si>
   <si>
+    <t>150003</t>
+  </si>
+  <si>
+    <t>170000</t>
+  </si>
+  <si>
+    <t>170150</t>
+  </si>
+  <si>
+    <t>175000</t>
+  </si>
+  <si>
+    <t>175001</t>
+  </si>
+  <si>
+    <t>195001</t>
+  </si>
+  <si>
     <t>номер зварки</t>
   </si>
   <si>
@@ -157,7 +202,73 @@
     <t>Гострини на розрізі контакту</t>
   </si>
   <si>
-    <t>37</t>
+    <t>38</t>
+  </si>
+  <si>
+    <t>150000</t>
+  </si>
+  <si>
+    <t>150001</t>
+  </si>
+  <si>
+    <t>150015</t>
+  </si>
+  <si>
+    <t>299015</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>300001</t>
+  </si>
+  <si>
+    <t>300100</t>
+  </si>
+  <si>
+    <t>500100</t>
+  </si>
+  <si>
+    <t>500200</t>
+  </si>
+  <si>
+    <t>500201</t>
+  </si>
+  <si>
+    <t>500202</t>
+  </si>
+  <si>
+    <t>500203</t>
+  </si>
+  <si>
+    <t>500210</t>
+  </si>
+  <si>
+    <t>600000</t>
+  </si>
+  <si>
+    <t>600001</t>
+  </si>
+  <si>
+    <t>620001</t>
+  </si>
+  <si>
+    <t>620002</t>
+  </si>
+  <si>
+    <t>660002</t>
+  </si>
+  <si>
+    <t>680002</t>
+  </si>
+  <si>
+    <t>790000</t>
+  </si>
+  <si>
+    <t>890000</t>
+  </si>
+  <si>
+    <t>180000</t>
   </si>
   <si>
     <t>номер обладнання</t>
@@ -822,6 +933,142 @@
       <c r="A10" t="s">
         <v>24</v>
       </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="21" spans="1:9">
       <c r="I21" s="1" t="n"/>
@@ -838,7 +1085,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
@@ -861,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -873,10 +1120,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -884,7 +1131,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>9</v>
@@ -893,10 +1140,10 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -904,7 +1151,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>9</v>
@@ -913,7 +1160,7 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -921,21 +1168,191 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="n">
+        <v>160010</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="n">
+        <v>160011</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="n">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="n">
+        <v>170000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -949,7 +1366,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
@@ -973,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -985,10 +1402,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -996,16 +1413,16 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1013,7 +1430,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>9</v>
@@ -1022,7 +1439,7 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1030,16 +1447,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1047,16 +1464,16 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1064,7 +1481,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -1081,7 +1498,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -1098,7 +1515,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -1115,7 +1532,7 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -1132,7 +1549,7 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
@@ -1141,7 +1558,7 @@
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1149,7 +1566,7 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
@@ -1158,7 +1575,7 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1166,21 +1583,412 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="E12" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1218,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -1230,10 +2038,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1250,10 +2058,10 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1270,18 +2078,18 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/eq_log/general equipment log.xlsx
+++ b/eq_log/general equipment log.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="96">
   <si>
     <t>дата</t>
   </si>
@@ -118,6 +118,15 @@
     <t>639999</t>
   </si>
   <si>
+    <t>Гострини на розрізі контакту</t>
+  </si>
+  <si>
+    <t>1000000</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
     <t>**</t>
   </si>
   <si>
@@ -166,6 +175,15 @@
     <t>195001</t>
   </si>
   <si>
+    <t>3002</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>600000</t>
+  </si>
+  <si>
     <t>номер зварки</t>
   </si>
   <si>
@@ -196,12 +214,6 @@
     <t>35</t>
   </si>
   <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>Гострини на розрізі контакту</t>
-  </si>
-  <si>
     <t>38</t>
   </si>
   <si>
@@ -217,9 +229,6 @@
     <t>299015</t>
   </si>
   <si>
-    <t>300000</t>
-  </si>
-  <si>
     <t>300001</t>
   </si>
   <si>
@@ -244,9 +253,6 @@
     <t>500210</t>
   </si>
   <si>
-    <t>600000</t>
-  </si>
-  <si>
     <t>600001</t>
   </si>
   <si>
@@ -269,6 +275,15 @@
   </si>
   <si>
     <t>180000</t>
+  </si>
+  <si>
+    <t>359999</t>
+  </si>
+  <si>
+    <t>500000</t>
+  </si>
+  <si>
+    <t>1000001</t>
   </si>
   <si>
     <t>номер обладнання</t>
@@ -1067,10 +1082,59 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
         <v>33</v>
       </c>
+      <c r="E18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
       <c r="I21" s="1" t="n"/>
     </row>
   </sheetData>
@@ -1085,7 +1149,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
@@ -1108,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -1120,10 +1184,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1131,7 +1195,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>9</v>
@@ -1140,10 +1204,10 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1151,7 +1215,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>9</v>
@@ -1160,7 +1224,7 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1168,16 +1232,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1185,7 +1249,7 @@
         <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -1194,7 +1258,7 @@
         <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1202,7 +1266,7 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -1219,7 +1283,7 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -1236,7 +1300,7 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -1253,7 +1317,7 @@
         <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -1270,7 +1334,7 @@
         <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
@@ -1279,7 +1343,7 @@
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1287,7 +1351,7 @@
         <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
@@ -1296,7 +1360,7 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1304,7 +1368,7 @@
         <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
@@ -1313,7 +1377,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1321,7 +1385,7 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
@@ -1330,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1338,7 +1402,7 @@
         <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
@@ -1347,12 +1411,46 @@
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" t="s">
         <v>33</v>
+      </c>
+      <c r="E15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1366,7 +1464,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
@@ -1390,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -1402,10 +1500,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1413,16 +1511,16 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1430,7 +1528,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>9</v>
@@ -1439,7 +1537,7 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1447,16 +1545,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1464,16 +1562,16 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1481,7 +1579,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -1498,7 +1596,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -1515,7 +1613,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -1532,7 +1630,7 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -1549,7 +1647,7 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
@@ -1558,7 +1656,7 @@
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1566,7 +1664,7 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
@@ -1575,7 +1673,7 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1583,13 +1681,13 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="E12" t="s">
         <v>25</v>
@@ -1600,7 +1698,7 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
@@ -1609,7 +1707,7 @@
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1617,7 +1715,7 @@
         <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
@@ -1626,7 +1724,7 @@
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1634,7 +1732,7 @@
         <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
@@ -1643,7 +1741,7 @@
         <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1651,16 +1749,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D16" t="s">
         <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1668,16 +1766,16 @@
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D17" t="s">
         <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1685,16 +1783,16 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D18" t="s">
         <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1702,16 +1800,16 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D19" t="s">
         <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1719,16 +1817,16 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C20" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D20" t="s">
         <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1736,16 +1834,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D21" t="s">
         <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1753,7 +1851,7 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
@@ -1762,7 +1860,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1770,7 +1868,7 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
@@ -1779,7 +1877,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1787,7 +1885,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
@@ -1796,7 +1894,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1804,7 +1902,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C25" t="s">
         <v>9</v>
@@ -1813,7 +1911,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1821,7 +1919,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C26" t="s">
         <v>9</v>
@@ -1830,7 +1928,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1838,7 +1936,7 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C27" t="s">
         <v>9</v>
@@ -1847,7 +1945,7 @@
         <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1855,7 +1953,7 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C28" t="s">
         <v>9</v>
@@ -1864,7 +1962,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1872,7 +1970,7 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C29" t="s">
         <v>9</v>
@@ -1881,7 +1979,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1889,7 +1987,7 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C30" t="s">
         <v>9</v>
@@ -1898,7 +1996,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1906,7 +2004,7 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C31" t="s">
         <v>9</v>
@@ -1915,7 +2013,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1923,7 +2021,7 @@
         <v>24</v>
       </c>
       <c r="B32" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C32" t="s">
         <v>9</v>
@@ -1932,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1940,7 +2038,7 @@
         <v>24</v>
       </c>
       <c r="B33" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C33" t="s">
         <v>9</v>
@@ -1949,7 +2047,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1957,7 +2055,7 @@
         <v>24</v>
       </c>
       <c r="B34" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C34" t="s">
         <v>9</v>
@@ -1966,7 +2064,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1974,7 +2072,7 @@
         <v>24</v>
       </c>
       <c r="B35" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C35" t="s">
         <v>9</v>
@@ -1983,12 +2081,80 @@
         <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>24</v>
+      </c>
+      <c r="B36" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -2026,7 +2192,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -2038,10 +2204,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2058,10 +2224,10 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2078,18 +2244,18 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/eq_log/general equipment log.xlsx
+++ b/eq_log/general equipment log.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="99">
   <si>
     <t>дата</t>
   </si>
@@ -127,6 +127,18 @@
     <t>36</t>
   </si>
   <si>
+    <t>14/02/2018</t>
+  </si>
+  <si>
+    <t>1000001</t>
+  </si>
+  <si>
+    <t>1111111111</t>
+  </si>
+  <si>
+    <t>1111111112</t>
+  </si>
+  <si>
     <t>**</t>
   </si>
   <si>
@@ -184,6 +196,9 @@
     <t>600000</t>
   </si>
   <si>
+    <t>600001</t>
+  </si>
+  <si>
     <t>номер зварки</t>
   </si>
   <si>
@@ -253,9 +268,6 @@
     <t>500210</t>
   </si>
   <si>
-    <t>600001</t>
-  </si>
-  <si>
     <t>620001</t>
   </si>
   <si>
@@ -281,9 +293,6 @@
   </si>
   <si>
     <t>500000</t>
-  </si>
-  <si>
-    <t>1000001</t>
   </si>
   <si>
     <t>номер обладнання</t>
@@ -780,7 +789,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
@@ -1135,7 +1144,58 @@
       <c r="A21" t="s">
         <v>36</v>
       </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" t="s">
+        <v>37</v>
+      </c>
       <c r="I21" s="1" t="n"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -1149,7 +1209,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
@@ -1172,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -1184,10 +1244,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1195,7 +1255,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>9</v>
@@ -1204,10 +1264,10 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1215,7 +1275,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>9</v>
@@ -1224,7 +1284,7 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1232,16 +1292,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1249,7 +1309,7 @@
         <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -1258,7 +1318,7 @@
         <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1266,7 +1326,7 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -1283,7 +1343,7 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -1300,7 +1360,7 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -1317,7 +1377,7 @@
         <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -1334,7 +1394,7 @@
         <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
@@ -1343,7 +1403,7 @@
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1351,7 +1411,7 @@
         <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
@@ -1360,7 +1420,7 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1368,7 +1428,7 @@
         <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
@@ -1377,7 +1437,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1385,7 +1445,7 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
@@ -1394,7 +1454,7 @@
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1402,7 +1462,7 @@
         <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
@@ -1411,7 +1471,7 @@
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1419,16 +1479,16 @@
         <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D15" t="s">
         <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1436,21 +1496,38 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D16" t="s">
         <v>33</v>
       </c>
       <c r="E16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>36</v>
+      </c>
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1488,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -1500,10 +1577,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1511,16 +1588,16 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1528,7 +1605,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>9</v>
@@ -1537,7 +1614,7 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1545,16 +1622,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1562,16 +1639,16 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1579,7 +1656,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -1596,7 +1673,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -1613,7 +1690,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -1630,7 +1707,7 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -1647,7 +1724,7 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
@@ -1656,7 +1733,7 @@
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1664,7 +1741,7 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
@@ -1681,7 +1758,7 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
@@ -1698,7 +1775,7 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
@@ -1707,7 +1784,7 @@
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1715,7 +1792,7 @@
         <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
@@ -1724,7 +1801,7 @@
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1732,7 +1809,7 @@
         <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
@@ -1741,7 +1818,7 @@
         <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1749,16 +1826,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D16" t="s">
         <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1766,16 +1843,16 @@
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D17" t="s">
         <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1783,16 +1860,16 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
         <v>57</v>
-      </c>
-      <c r="C18" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1800,16 +1877,16 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D19" t="s">
         <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1817,16 +1894,16 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D20" t="s">
         <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1834,16 +1911,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D21" t="s">
         <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1851,7 +1928,7 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
@@ -1860,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1868,7 +1945,7 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
@@ -1877,7 +1954,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1885,7 +1962,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
@@ -1894,7 +1971,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1902,7 +1979,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C25" t="s">
         <v>9</v>
@@ -1911,7 +1988,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1919,7 +1996,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C26" t="s">
         <v>9</v>
@@ -1928,7 +2005,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1936,7 +2013,7 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C27" t="s">
         <v>9</v>
@@ -1945,7 +2022,7 @@
         <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1953,7 +2030,7 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C28" t="s">
         <v>9</v>
@@ -1962,7 +2039,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1970,7 +2047,7 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C29" t="s">
         <v>9</v>
@@ -1979,7 +2056,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1987,7 +2064,7 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C30" t="s">
         <v>9</v>
@@ -1996,7 +2073,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2004,7 +2081,7 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C31" t="s">
         <v>9</v>
@@ -2013,7 +2090,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2021,7 +2098,7 @@
         <v>24</v>
       </c>
       <c r="B32" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C32" t="s">
         <v>9</v>
@@ -2030,7 +2107,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2038,7 +2115,7 @@
         <v>24</v>
       </c>
       <c r="B33" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C33" t="s">
         <v>9</v>
@@ -2047,7 +2124,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2055,7 +2132,7 @@
         <v>24</v>
       </c>
       <c r="B34" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C34" t="s">
         <v>9</v>
@@ -2064,7 +2141,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2072,7 +2149,7 @@
         <v>24</v>
       </c>
       <c r="B35" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C35" t="s">
         <v>9</v>
@@ -2081,7 +2158,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2089,7 +2166,7 @@
         <v>24</v>
       </c>
       <c r="B36" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C36" t="s">
         <v>9</v>
@@ -2098,7 +2175,7 @@
         <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2106,7 +2183,7 @@
         <v>24</v>
       </c>
       <c r="B37" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C37" t="s">
         <v>9</v>
@@ -2115,7 +2192,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2123,7 +2200,7 @@
         <v>24</v>
       </c>
       <c r="B38" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C38" t="s">
         <v>9</v>
@@ -2140,7 +2217,7 @@
         <v>24</v>
       </c>
       <c r="B39" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C39" t="s">
         <v>9</v>
@@ -2149,12 +2226,12 @@
         <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>88</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2192,7 +2269,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -2204,10 +2281,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2224,10 +2301,10 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2244,18 +2321,18 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/eq_log/general equipment log.xlsx
+++ b/eq_log/general equipment log.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="116">
   <si>
     <t>дата</t>
   </si>
@@ -139,6 +139,21 @@
     <t>1111111112</t>
   </si>
   <si>
+    <t>20/02/2018</t>
+  </si>
+  <si>
+    <t>80001111</t>
+  </si>
+  <si>
+    <t>5699</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>5700</t>
+  </si>
+  <si>
     <t>**</t>
   </si>
   <si>
@@ -199,6 +214,45 @@
     <t>600001</t>
   </si>
   <si>
+    <t>600002</t>
+  </si>
+  <si>
+    <t>600003</t>
+  </si>
+  <si>
+    <t>600004</t>
+  </si>
+  <si>
+    <t>600005</t>
+  </si>
+  <si>
+    <t>600006</t>
+  </si>
+  <si>
+    <t>600007</t>
+  </si>
+  <si>
+    <t>600008</t>
+  </si>
+  <si>
+    <t>600009</t>
+  </si>
+  <si>
+    <t>600010</t>
+  </si>
+  <si>
+    <t>600011</t>
+  </si>
+  <si>
+    <t>600012</t>
+  </si>
+  <si>
+    <t>600013</t>
+  </si>
+  <si>
+    <t>600014</t>
+  </si>
+  <si>
     <t>номер зварки</t>
   </si>
   <si>
@@ -206,9 +260,6 @@
   </si>
   <si>
     <t>80002223</t>
-  </si>
-  <si>
-    <t>1111</t>
   </si>
   <si>
     <t>4</t>
@@ -789,7 +840,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
@@ -1196,6 +1247,40 @@
       <c r="A24" t="s">
         <v>40</v>
       </c>
+      <c r="B24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -1209,7 +1294,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
@@ -1232,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -1244,10 +1329,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1255,7 +1340,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>9</v>
@@ -1264,10 +1349,10 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1275,7 +1360,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>9</v>
@@ -1284,7 +1369,7 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1292,16 +1377,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1309,7 +1394,7 @@
         <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -1318,7 +1403,7 @@
         <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1326,7 +1411,7 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -1343,7 +1428,7 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -1360,7 +1445,7 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -1377,7 +1462,7 @@
         <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -1394,7 +1479,7 @@
         <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
@@ -1403,7 +1488,7 @@
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1411,7 +1496,7 @@
         <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
@@ -1420,7 +1505,7 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1428,7 +1513,7 @@
         <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
@@ -1437,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1445,7 +1530,7 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
@@ -1454,7 +1539,7 @@
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1462,7 +1547,7 @@
         <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
@@ -1471,7 +1556,7 @@
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1479,16 +1564,16 @@
         <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D15" t="s">
         <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1496,16 +1581,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D16" t="s">
         <v>33</v>
       </c>
       <c r="E16" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1513,7 +1598,7 @@
         <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
@@ -1522,12 +1607,233 @@
         <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>40</v>
+      </c>
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1565,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -1577,10 +1883,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1588,16 +1894,16 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1605,7 +1911,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>9</v>
@@ -1614,7 +1920,7 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1622,16 +1928,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1639,16 +1945,16 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1656,7 +1962,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -1673,7 +1979,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -1690,7 +1996,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -1707,7 +2013,7 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -1724,7 +2030,7 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
@@ -1733,7 +2039,7 @@
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1741,7 +2047,7 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
@@ -1758,7 +2064,7 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
@@ -1775,7 +2081,7 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
@@ -1784,7 +2090,7 @@
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1792,7 +2098,7 @@
         <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
@@ -1801,7 +2107,7 @@
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1809,7 +2115,7 @@
         <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
@@ -1818,7 +2124,7 @@
         <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1826,16 +2132,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="D16" t="s">
         <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1843,16 +2149,16 @@
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="D17" t="s">
         <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1860,16 +2166,16 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
         <v>62</v>
-      </c>
-      <c r="C18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1877,16 +2183,16 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="D19" t="s">
         <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1894,16 +2200,16 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="D20" t="s">
         <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1911,16 +2217,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="D21" t="s">
         <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1928,7 +2234,7 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
@@ -1937,7 +2243,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1945,7 +2251,7 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
@@ -1954,7 +2260,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1962,7 +2268,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
@@ -1971,7 +2277,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1979,7 +2285,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="C25" t="s">
         <v>9</v>
@@ -1988,7 +2294,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1996,7 +2302,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="C26" t="s">
         <v>9</v>
@@ -2005,7 +2311,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2013,7 +2319,7 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="C27" t="s">
         <v>9</v>
@@ -2022,7 +2328,7 @@
         <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2030,7 +2336,7 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="C28" t="s">
         <v>9</v>
@@ -2039,7 +2345,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2047,7 +2353,7 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="C29" t="s">
         <v>9</v>
@@ -2056,7 +2362,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2064,7 +2370,7 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="C30" t="s">
         <v>9</v>
@@ -2073,7 +2379,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2081,7 +2387,7 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="C31" t="s">
         <v>9</v>
@@ -2090,7 +2396,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2098,7 +2404,7 @@
         <v>24</v>
       </c>
       <c r="B32" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="C32" t="s">
         <v>9</v>
@@ -2107,7 +2413,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2115,7 +2421,7 @@
         <v>24</v>
       </c>
       <c r="B33" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="C33" t="s">
         <v>9</v>
@@ -2124,7 +2430,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2132,7 +2438,7 @@
         <v>24</v>
       </c>
       <c r="B34" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="C34" t="s">
         <v>9</v>
@@ -2141,7 +2447,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2149,7 +2455,7 @@
         <v>24</v>
       </c>
       <c r="B35" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="C35" t="s">
         <v>9</v>
@@ -2158,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2166,7 +2472,7 @@
         <v>24</v>
       </c>
       <c r="B36" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="C36" t="s">
         <v>9</v>
@@ -2175,7 +2481,7 @@
         <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2183,7 +2489,7 @@
         <v>24</v>
       </c>
       <c r="B37" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="C37" t="s">
         <v>9</v>
@@ -2192,7 +2498,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2200,7 +2506,7 @@
         <v>24</v>
       </c>
       <c r="B38" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="C38" t="s">
         <v>9</v>
@@ -2217,7 +2523,7 @@
         <v>24</v>
       </c>
       <c r="B39" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="C39" t="s">
         <v>9</v>
@@ -2231,7 +2537,7 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2269,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -2281,10 +2587,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2301,10 +2607,10 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2321,18 +2627,18 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/eq_log/general equipment log.xlsx
+++ b/eq_log/general equipment log.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="142">
   <si>
     <t>дата</t>
   </si>
@@ -154,6 +154,87 @@
     <t>5700</t>
   </si>
   <si>
+    <t>21/02/2018</t>
+  </si>
+  <si>
+    <t>5701</t>
+  </si>
+  <si>
+    <t>5702</t>
+  </si>
+  <si>
+    <t>5703</t>
+  </si>
+  <si>
+    <t>5704</t>
+  </si>
+  <si>
+    <t>5705</t>
+  </si>
+  <si>
+    <t>5706</t>
+  </si>
+  <si>
+    <t>5707</t>
+  </si>
+  <si>
+    <t>5708</t>
+  </si>
+  <si>
+    <t>5709</t>
+  </si>
+  <si>
+    <t>5710</t>
+  </si>
+  <si>
+    <t>5711</t>
+  </si>
+  <si>
+    <t>5712</t>
+  </si>
+  <si>
+    <t>5713</t>
+  </si>
+  <si>
+    <t>5714</t>
+  </si>
+  <si>
+    <t>5715</t>
+  </si>
+  <si>
+    <t>5716</t>
+  </si>
+  <si>
+    <t>5717</t>
+  </si>
+  <si>
+    <t>5718</t>
+  </si>
+  <si>
+    <t>5719</t>
+  </si>
+  <si>
+    <t>5720</t>
+  </si>
+  <si>
+    <t>5721</t>
+  </si>
+  <si>
+    <t>5722</t>
+  </si>
+  <si>
+    <t>5799</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Обладнання не вмикається / не продукує виріб</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>**</t>
   </si>
   <si>
@@ -178,9 +259,6 @@
     <t>1337</t>
   </si>
   <si>
-    <t>Обладнання не вмикається / не продукує виріб</t>
-  </si>
-  <si>
     <t>1338</t>
   </si>
   <si>
@@ -262,9 +340,6 @@
     <t>80002223</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
@@ -344,6 +419,9 @@
   </si>
   <si>
     <t>500000</t>
+  </si>
+  <si>
+    <t>1000002</t>
   </si>
   <si>
     <t>номер обладнання</t>
@@ -840,7 +918,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
@@ -1280,6 +1358,431 @@
     <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>45</v>
+      </c>
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" t="s">
+        <v>33</v>
+      </c>
+      <c r="E42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" t="s">
+        <v>33</v>
+      </c>
+      <c r="E43" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>41</v>
+      </c>
+      <c r="C47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" t="s">
+        <v>45</v>
+      </c>
+      <c r="B50" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" t="s">
+        <v>70</v>
+      </c>
+      <c r="E50" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1317,7 +1820,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -1329,10 +1832,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1340,7 +1843,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>9</v>
@@ -1349,10 +1852,10 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1360,7 +1863,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>9</v>
@@ -1369,7 +1872,7 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1377,16 +1880,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1394,7 +1897,7 @@
         <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -1403,7 +1906,7 @@
         <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1411,7 +1914,7 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -1428,7 +1931,7 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -1445,7 +1948,7 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -1462,7 +1965,7 @@
         <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -1479,7 +1982,7 @@
         <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
@@ -1488,7 +1991,7 @@
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1496,7 +1999,7 @@
         <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
@@ -1505,7 +2008,7 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1513,7 +2016,7 @@
         <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
@@ -1522,7 +2025,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1530,7 +2033,7 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
@@ -1539,7 +2042,7 @@
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1547,7 +2050,7 @@
         <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
@@ -1556,7 +2059,7 @@
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1564,16 +2067,16 @@
         <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="D15" t="s">
         <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1581,16 +2084,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="D16" t="s">
         <v>33</v>
       </c>
       <c r="E16" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1598,7 +2101,7 @@
         <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
@@ -1607,7 +2110,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1615,7 +2118,7 @@
         <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
@@ -1624,7 +2127,7 @@
         <v>33</v>
       </c>
       <c r="E18" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1632,7 +2135,7 @@
         <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
@@ -1641,7 +2144,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1649,7 +2152,7 @@
         <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
@@ -1658,7 +2161,7 @@
         <v>33</v>
       </c>
       <c r="E20" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1666,7 +2169,7 @@
         <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
@@ -1675,7 +2178,7 @@
         <v>33</v>
       </c>
       <c r="E21" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1683,7 +2186,7 @@
         <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
@@ -1692,7 +2195,7 @@
         <v>33</v>
       </c>
       <c r="E22" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1700,7 +2203,7 @@
         <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
@@ -1709,7 +2212,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1717,7 +2220,7 @@
         <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
@@ -1726,7 +2229,7 @@
         <v>33</v>
       </c>
       <c r="E24" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1734,7 +2237,7 @@
         <v>40</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="C25" t="s">
         <v>9</v>
@@ -1743,7 +2246,7 @@
         <v>33</v>
       </c>
       <c r="E25" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1751,7 +2254,7 @@
         <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="C26" t="s">
         <v>9</v>
@@ -1760,7 +2263,7 @@
         <v>33</v>
       </c>
       <c r="E26" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1768,7 +2271,7 @@
         <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="C27" t="s">
         <v>9</v>
@@ -1777,7 +2280,7 @@
         <v>33</v>
       </c>
       <c r="E27" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1785,7 +2288,7 @@
         <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="C28" t="s">
         <v>9</v>
@@ -1794,7 +2297,7 @@
         <v>33</v>
       </c>
       <c r="E28" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1802,7 +2305,7 @@
         <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="C29" t="s">
         <v>9</v>
@@ -1811,7 +2314,7 @@
         <v>33</v>
       </c>
       <c r="E29" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1819,7 +2322,7 @@
         <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="C30" t="s">
         <v>9</v>
@@ -1828,12 +2331,12 @@
         <v>33</v>
       </c>
       <c r="E30" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1847,7 +2350,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
@@ -1871,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -1883,10 +2386,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1894,7 +2397,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>43</v>
@@ -1903,7 +2406,7 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1911,7 +2414,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>9</v>
@@ -1920,7 +2423,7 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1928,16 +2431,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1945,16 +2448,16 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1962,7 +2465,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -1979,7 +2482,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -1996,7 +2499,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -2013,7 +2516,7 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -2030,7 +2533,7 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
@@ -2039,7 +2542,7 @@
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2047,7 +2550,7 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
@@ -2064,7 +2567,7 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
@@ -2081,7 +2584,7 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
@@ -2090,7 +2593,7 @@
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2098,7 +2601,7 @@
         <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
@@ -2107,7 +2610,7 @@
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2115,7 +2618,7 @@
         <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
@@ -2124,7 +2627,7 @@
         <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2132,7 +2635,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="C16" t="s">
         <v>43</v>
@@ -2141,7 +2644,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2149,7 +2652,7 @@
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="C17" t="s">
         <v>43</v>
@@ -2158,7 +2661,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2166,7 +2669,7 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="C18" t="s">
         <v>43</v>
@@ -2175,7 +2678,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2183,7 +2686,7 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="C19" t="s">
         <v>43</v>
@@ -2192,7 +2695,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2200,7 +2703,7 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="C20" t="s">
         <v>43</v>
@@ -2209,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2217,7 +2720,7 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="C21" t="s">
         <v>43</v>
@@ -2226,7 +2729,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2234,7 +2737,7 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
@@ -2243,7 +2746,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2251,7 +2754,7 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
@@ -2260,7 +2763,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2268,7 +2771,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
@@ -2277,7 +2780,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2285,7 +2788,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="C25" t="s">
         <v>9</v>
@@ -2294,7 +2797,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2302,7 +2805,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="C26" t="s">
         <v>9</v>
@@ -2311,7 +2814,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2319,7 +2822,7 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="C27" t="s">
         <v>9</v>
@@ -2328,7 +2831,7 @@
         <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2336,7 +2839,7 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="C28" t="s">
         <v>9</v>
@@ -2345,7 +2848,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2353,7 +2856,7 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="C29" t="s">
         <v>9</v>
@@ -2362,7 +2865,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2370,7 +2873,7 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="C30" t="s">
         <v>9</v>
@@ -2379,7 +2882,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2387,7 +2890,7 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="C31" t="s">
         <v>9</v>
@@ -2396,7 +2899,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2404,7 +2907,7 @@
         <v>24</v>
       </c>
       <c r="B32" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="C32" t="s">
         <v>9</v>
@@ -2413,7 +2916,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2421,7 +2924,7 @@
         <v>24</v>
       </c>
       <c r="B33" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="C33" t="s">
         <v>9</v>
@@ -2430,7 +2933,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2438,7 +2941,7 @@
         <v>24</v>
       </c>
       <c r="B34" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="C34" t="s">
         <v>9</v>
@@ -2447,7 +2950,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2455,7 +2958,7 @@
         <v>24</v>
       </c>
       <c r="B35" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="C35" t="s">
         <v>9</v>
@@ -2464,7 +2967,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2472,7 +2975,7 @@
         <v>24</v>
       </c>
       <c r="B36" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="C36" t="s">
         <v>9</v>
@@ -2481,7 +2984,7 @@
         <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2489,7 +2992,7 @@
         <v>24</v>
       </c>
       <c r="B37" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="C37" t="s">
         <v>9</v>
@@ -2498,7 +3001,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2506,7 +3009,7 @@
         <v>24</v>
       </c>
       <c r="B38" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="C38" t="s">
         <v>9</v>
@@ -2523,7 +3026,7 @@
         <v>24</v>
       </c>
       <c r="B39" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="C39" t="s">
         <v>9</v>
@@ -2538,6 +3041,23 @@
     <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>45</v>
+      </c>
+      <c r="B40" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2575,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -2587,10 +3107,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2607,10 +3127,10 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2627,18 +3147,18 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/eq_log/general equipment log.xlsx
+++ b/eq_log/general equipment log.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="144">
   <si>
     <t>дата</t>
   </si>
@@ -235,6 +235,15 @@
     <t>4</t>
   </si>
   <si>
+    <t>22/02/2018</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>**</t>
   </si>
   <si>
@@ -340,15 +349,9 @@
     <t>80002223</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>7</t>
   </si>
   <si>
@@ -422,6 +425,9 @@
   </si>
   <si>
     <t>1000002</t>
+  </si>
+  <si>
+    <t>1000003</t>
   </si>
   <si>
     <t>номер обладнання</t>
@@ -918,7 +924,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
@@ -1783,6 +1789,40 @@
     <row r="51" spans="1:9">
       <c r="A51" t="s">
         <v>72</v>
+      </c>
+      <c r="B51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" t="s">
+        <v>72</v>
+      </c>
+      <c r="B52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" t="s">
+        <v>33</v>
+      </c>
+      <c r="E52" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1820,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -1832,10 +1872,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1843,7 +1883,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>9</v>
@@ -1852,10 +1892,10 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1863,7 +1903,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>9</v>
@@ -1872,7 +1912,7 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1880,7 +1920,7 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -1889,7 +1929,7 @@
         <v>70</v>
       </c>
       <c r="E4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1897,7 +1937,7 @@
         <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -1906,7 +1946,7 @@
         <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1914,7 +1954,7 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -1931,7 +1971,7 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -1948,7 +1988,7 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -1965,7 +2005,7 @@
         <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -1982,7 +2022,7 @@
         <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
@@ -1991,7 +2031,7 @@
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1999,7 +2039,7 @@
         <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
@@ -2008,7 +2048,7 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2016,7 +2056,7 @@
         <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
@@ -2025,7 +2065,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2033,7 +2073,7 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
@@ -2042,7 +2082,7 @@
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2050,7 +2090,7 @@
         <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
@@ -2059,7 +2099,7 @@
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2067,16 +2107,16 @@
         <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C15" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D15" t="s">
         <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2084,16 +2124,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C16" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D16" t="s">
         <v>33</v>
       </c>
       <c r="E16" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2101,7 +2141,7 @@
         <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
@@ -2110,7 +2150,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2118,7 +2158,7 @@
         <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
@@ -2127,7 +2167,7 @@
         <v>33</v>
       </c>
       <c r="E18" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2135,7 +2175,7 @@
         <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
@@ -2144,7 +2184,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2152,7 +2192,7 @@
         <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
@@ -2161,7 +2201,7 @@
         <v>33</v>
       </c>
       <c r="E20" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2169,7 +2209,7 @@
         <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
@@ -2178,7 +2218,7 @@
         <v>33</v>
       </c>
       <c r="E21" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2186,7 +2226,7 @@
         <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
@@ -2195,7 +2235,7 @@
         <v>33</v>
       </c>
       <c r="E22" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2203,7 +2243,7 @@
         <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
@@ -2212,7 +2252,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2220,7 +2260,7 @@
         <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
@@ -2229,7 +2269,7 @@
         <v>33</v>
       </c>
       <c r="E24" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2237,7 +2277,7 @@
         <v>40</v>
       </c>
       <c r="B25" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C25" t="s">
         <v>9</v>
@@ -2246,7 +2286,7 @@
         <v>33</v>
       </c>
       <c r="E25" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2254,7 +2294,7 @@
         <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C26" t="s">
         <v>9</v>
@@ -2263,7 +2303,7 @@
         <v>33</v>
       </c>
       <c r="E26" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2271,7 +2311,7 @@
         <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C27" t="s">
         <v>9</v>
@@ -2280,7 +2320,7 @@
         <v>33</v>
       </c>
       <c r="E27" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2288,7 +2328,7 @@
         <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C28" t="s">
         <v>9</v>
@@ -2297,7 +2337,7 @@
         <v>33</v>
       </c>
       <c r="E28" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2305,7 +2345,7 @@
         <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C29" t="s">
         <v>9</v>
@@ -2314,7 +2354,7 @@
         <v>33</v>
       </c>
       <c r="E29" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2322,7 +2362,7 @@
         <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C30" t="s">
         <v>9</v>
@@ -2331,12 +2371,12 @@
         <v>33</v>
       </c>
       <c r="E30" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2350,7 +2390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
@@ -2374,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -2386,10 +2426,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2397,7 +2437,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>43</v>
@@ -2414,7 +2454,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>9</v>
@@ -2423,7 +2463,7 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2431,16 +2471,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2448,16 +2488,16 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2465,7 +2505,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -2482,7 +2522,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -2499,7 +2539,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -2516,7 +2556,7 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -2533,7 +2573,7 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
@@ -2542,7 +2582,7 @@
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2550,7 +2590,7 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
@@ -2567,7 +2607,7 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
@@ -2584,7 +2624,7 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
@@ -2593,7 +2633,7 @@
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2601,7 +2641,7 @@
         <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
@@ -2610,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2618,7 +2658,7 @@
         <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
@@ -2627,7 +2667,7 @@
         <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2635,7 +2675,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C16" t="s">
         <v>43</v>
@@ -2644,7 +2684,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2652,7 +2692,7 @@
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C17" t="s">
         <v>43</v>
@@ -2661,7 +2701,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2669,7 +2709,7 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C18" t="s">
         <v>43</v>
@@ -2678,7 +2718,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2686,7 +2726,7 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C19" t="s">
         <v>43</v>
@@ -2695,7 +2735,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2703,7 +2743,7 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C20" t="s">
         <v>43</v>
@@ -2712,7 +2752,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2720,7 +2760,7 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C21" t="s">
         <v>43</v>
@@ -2729,7 +2769,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2737,7 +2777,7 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
@@ -2746,7 +2786,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2754,7 +2794,7 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
@@ -2763,7 +2803,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2771,7 +2811,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
@@ -2780,7 +2820,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2788,7 +2828,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C25" t="s">
         <v>9</v>
@@ -2797,7 +2837,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2805,7 +2845,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C26" t="s">
         <v>9</v>
@@ -2814,7 +2854,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2822,7 +2862,7 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C27" t="s">
         <v>9</v>
@@ -2831,7 +2871,7 @@
         <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2839,7 +2879,7 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C28" t="s">
         <v>9</v>
@@ -2848,7 +2888,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2856,7 +2896,7 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C29" t="s">
         <v>9</v>
@@ -2865,7 +2905,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2873,7 +2913,7 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C30" t="s">
         <v>9</v>
@@ -2882,7 +2922,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2890,7 +2930,7 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C31" t="s">
         <v>9</v>
@@ -2899,7 +2939,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2907,7 +2947,7 @@
         <v>24</v>
       </c>
       <c r="B32" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C32" t="s">
         <v>9</v>
@@ -2916,7 +2956,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2924,7 +2964,7 @@
         <v>24</v>
       </c>
       <c r="B33" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C33" t="s">
         <v>9</v>
@@ -2933,7 +2973,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2941,7 +2981,7 @@
         <v>24</v>
       </c>
       <c r="B34" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C34" t="s">
         <v>9</v>
@@ -2950,7 +2990,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2958,7 +2998,7 @@
         <v>24</v>
       </c>
       <c r="B35" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C35" t="s">
         <v>9</v>
@@ -2967,7 +3007,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2975,7 +3015,7 @@
         <v>24</v>
       </c>
       <c r="B36" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C36" t="s">
         <v>9</v>
@@ -2984,7 +3024,7 @@
         <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2992,7 +3032,7 @@
         <v>24</v>
       </c>
       <c r="B37" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C37" t="s">
         <v>9</v>
@@ -3001,7 +3041,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3009,7 +3049,7 @@
         <v>24</v>
       </c>
       <c r="B38" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C38" t="s">
         <v>9</v>
@@ -3026,7 +3066,7 @@
         <v>24</v>
       </c>
       <c r="B39" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C39" t="s">
         <v>9</v>
@@ -3043,7 +3083,7 @@
         <v>45</v>
       </c>
       <c r="B40" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C40" t="s">
         <v>9</v>
@@ -3052,12 +3092,29 @@
         <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
         <v>72</v>
+      </c>
+      <c r="B41" t="s">
+        <v>109</v>
+      </c>
+      <c r="C41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -3095,7 +3152,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -3107,10 +3164,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3127,10 +3184,10 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3147,18 +3204,18 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/eq_log/general equipment log.xlsx
+++ b/eq_log/general equipment log.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="157">
   <si>
     <t>дата</t>
   </si>
@@ -244,6 +244,48 @@
     <t>6</t>
   </si>
   <si>
+    <t>3070</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>3067</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
     <t>**</t>
   </si>
   <si>
@@ -350,9 +392,6 @@
   </si>
   <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>7</t>
   </si>
   <si>
     <t>35</t>
@@ -924,7 +963,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:I65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
@@ -1822,7 +1861,211 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
+        <v>72</v>
+      </c>
+      <c r="B53" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" t="s">
         <v>75</v>
+      </c>
+      <c r="D53" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" t="s">
+        <v>72</v>
+      </c>
+      <c r="B54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" t="s">
+        <v>75</v>
+      </c>
+      <c r="D54" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" t="s">
+        <v>72</v>
+      </c>
+      <c r="B55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" t="s">
+        <v>75</v>
+      </c>
+      <c r="D55" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" t="s">
+        <v>72</v>
+      </c>
+      <c r="B56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" t="s">
+        <v>75</v>
+      </c>
+      <c r="D56" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" t="s">
+        <v>72</v>
+      </c>
+      <c r="B57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" t="s">
+        <v>75</v>
+      </c>
+      <c r="D57" t="s">
+        <v>33</v>
+      </c>
+      <c r="E57" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" t="s">
+        <v>72</v>
+      </c>
+      <c r="B58" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" t="s">
+        <v>33</v>
+      </c>
+      <c r="E58" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" t="s">
+        <v>72</v>
+      </c>
+      <c r="B59" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" t="s">
+        <v>75</v>
+      </c>
+      <c r="D59" t="s">
+        <v>33</v>
+      </c>
+      <c r="E59" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" t="s">
+        <v>72</v>
+      </c>
+      <c r="B60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" t="s">
+        <v>83</v>
+      </c>
+      <c r="D60" t="s">
+        <v>33</v>
+      </c>
+      <c r="E60" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" t="s">
+        <v>72</v>
+      </c>
+      <c r="B61" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" t="s">
+        <v>83</v>
+      </c>
+      <c r="D61" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" t="s">
+        <v>72</v>
+      </c>
+      <c r="B62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" t="s">
+        <v>83</v>
+      </c>
+      <c r="D62" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" t="s">
+        <v>72</v>
+      </c>
+      <c r="B63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" t="s">
+        <v>83</v>
+      </c>
+      <c r="D63" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" t="s">
+        <v>72</v>
+      </c>
+      <c r="B64" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" t="s">
+        <v>83</v>
+      </c>
+      <c r="D64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1860,7 +2103,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -1872,10 +2115,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1883,7 +2126,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>9</v>
@@ -1892,10 +2135,10 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1903,7 +2146,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>9</v>
@@ -1912,7 +2155,7 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1920,7 +2163,7 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -1929,7 +2172,7 @@
         <v>70</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1937,7 +2180,7 @@
         <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -1946,7 +2189,7 @@
         <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1954,7 +2197,7 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -1971,7 +2214,7 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -1988,7 +2231,7 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -2005,7 +2248,7 @@
         <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -2022,7 +2265,7 @@
         <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
@@ -2031,7 +2274,7 @@
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2039,7 +2282,7 @@
         <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
@@ -2048,7 +2291,7 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2056,7 +2299,7 @@
         <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
@@ -2065,7 +2308,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2073,7 +2316,7 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
@@ -2082,7 +2325,7 @@
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2090,7 +2333,7 @@
         <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
@@ -2099,7 +2342,7 @@
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2107,16 +2350,16 @@
         <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C15" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="D15" t="s">
         <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2124,16 +2367,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C16" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="D16" t="s">
         <v>33</v>
       </c>
       <c r="E16" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2141,7 +2384,7 @@
         <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
@@ -2150,7 +2393,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2158,7 +2401,7 @@
         <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
@@ -2167,7 +2410,7 @@
         <v>33</v>
       </c>
       <c r="E18" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2175,7 +2418,7 @@
         <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
@@ -2184,7 +2427,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2192,7 +2435,7 @@
         <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
@@ -2201,7 +2444,7 @@
         <v>33</v>
       </c>
       <c r="E20" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2209,7 +2452,7 @@
         <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
@@ -2218,7 +2461,7 @@
         <v>33</v>
       </c>
       <c r="E21" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2226,7 +2469,7 @@
         <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
@@ -2235,7 +2478,7 @@
         <v>33</v>
       </c>
       <c r="E22" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2243,7 +2486,7 @@
         <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
@@ -2252,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2260,7 +2503,7 @@
         <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
@@ -2269,7 +2512,7 @@
         <v>33</v>
       </c>
       <c r="E24" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2277,7 +2520,7 @@
         <v>40</v>
       </c>
       <c r="B25" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C25" t="s">
         <v>9</v>
@@ -2286,7 +2529,7 @@
         <v>33</v>
       </c>
       <c r="E25" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2294,7 +2537,7 @@
         <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C26" t="s">
         <v>9</v>
@@ -2303,7 +2546,7 @@
         <v>33</v>
       </c>
       <c r="E26" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2311,7 +2554,7 @@
         <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C27" t="s">
         <v>9</v>
@@ -2320,7 +2563,7 @@
         <v>33</v>
       </c>
       <c r="E27" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2328,7 +2571,7 @@
         <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C28" t="s">
         <v>9</v>
@@ -2337,7 +2580,7 @@
         <v>33</v>
       </c>
       <c r="E28" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2345,7 +2588,7 @@
         <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C29" t="s">
         <v>9</v>
@@ -2354,7 +2597,7 @@
         <v>33</v>
       </c>
       <c r="E29" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2362,7 +2605,7 @@
         <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C30" t="s">
         <v>9</v>
@@ -2371,12 +2614,12 @@
         <v>33</v>
       </c>
       <c r="E30" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2414,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -2426,10 +2669,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2437,7 +2680,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>43</v>
@@ -2454,7 +2697,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>9</v>
@@ -2471,10 +2714,10 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="C4" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -2488,16 +2731,16 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="C5" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2505,7 +2748,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -2522,7 +2765,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -2539,7 +2782,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -2556,7 +2799,7 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -2573,7 +2816,7 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
@@ -2582,7 +2825,7 @@
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2590,7 +2833,7 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
@@ -2607,7 +2850,7 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
@@ -2624,7 +2867,7 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
@@ -2633,7 +2876,7 @@
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2641,7 +2884,7 @@
         <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
@@ -2650,7 +2893,7 @@
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2658,7 +2901,7 @@
         <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
@@ -2667,7 +2910,7 @@
         <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2675,7 +2918,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="C16" t="s">
         <v>43</v>
@@ -2684,7 +2927,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2692,7 +2935,7 @@
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="C17" t="s">
         <v>43</v>
@@ -2701,7 +2944,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2709,7 +2952,7 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="C18" t="s">
         <v>43</v>
@@ -2718,7 +2961,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2726,7 +2969,7 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="C19" t="s">
         <v>43</v>
@@ -2735,7 +2978,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2743,7 +2986,7 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="C20" t="s">
         <v>43</v>
@@ -2752,7 +2995,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2760,7 +3003,7 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="C21" t="s">
         <v>43</v>
@@ -2769,7 +3012,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2777,7 +3020,7 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
@@ -2786,7 +3029,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2794,7 +3037,7 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
@@ -2803,7 +3046,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2811,7 +3054,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
@@ -2820,7 +3063,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2828,7 +3071,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="C25" t="s">
         <v>9</v>
@@ -2837,7 +3080,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2845,7 +3088,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="C26" t="s">
         <v>9</v>
@@ -2854,7 +3097,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2862,7 +3105,7 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="C27" t="s">
         <v>9</v>
@@ -2871,7 +3114,7 @@
         <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2879,7 +3122,7 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="C28" t="s">
         <v>9</v>
@@ -2888,7 +3131,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2896,7 +3139,7 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="C29" t="s">
         <v>9</v>
@@ -2905,7 +3148,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2913,7 +3156,7 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="C30" t="s">
         <v>9</v>
@@ -2922,7 +3165,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2930,7 +3173,7 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="C31" t="s">
         <v>9</v>
@@ -2939,7 +3182,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2947,7 +3190,7 @@
         <v>24</v>
       </c>
       <c r="B32" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="C32" t="s">
         <v>9</v>
@@ -2956,7 +3199,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2964,7 +3207,7 @@
         <v>24</v>
       </c>
       <c r="B33" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="C33" t="s">
         <v>9</v>
@@ -2973,7 +3216,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2981,7 +3224,7 @@
         <v>24</v>
       </c>
       <c r="B34" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="C34" t="s">
         <v>9</v>
@@ -2990,7 +3233,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2998,7 +3241,7 @@
         <v>24</v>
       </c>
       <c r="B35" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="C35" t="s">
         <v>9</v>
@@ -3007,7 +3250,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3015,7 +3258,7 @@
         <v>24</v>
       </c>
       <c r="B36" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="C36" t="s">
         <v>9</v>
@@ -3024,7 +3267,7 @@
         <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3032,7 +3275,7 @@
         <v>24</v>
       </c>
       <c r="B37" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="C37" t="s">
         <v>9</v>
@@ -3041,7 +3284,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3049,7 +3292,7 @@
         <v>24</v>
       </c>
       <c r="B38" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="C38" t="s">
         <v>9</v>
@@ -3066,7 +3309,7 @@
         <v>24</v>
       </c>
       <c r="B39" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="C39" t="s">
         <v>9</v>
@@ -3083,7 +3326,7 @@
         <v>45</v>
       </c>
       <c r="B40" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="C40" t="s">
         <v>9</v>
@@ -3092,7 +3335,7 @@
         <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3100,7 +3343,7 @@
         <v>72</v>
       </c>
       <c r="B41" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="C41" t="s">
         <v>9</v>
@@ -3109,12 +3352,12 @@
         <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -3152,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -3164,10 +3407,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3184,10 +3427,10 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3204,18 +3447,18 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/eq_log/general equipment log.xlsx
+++ b/eq_log/general equipment log.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="189">
   <si>
     <t>дата</t>
   </si>
@@ -286,6 +286,111 @@
     <t>18</t>
   </si>
   <si>
+    <t>27/02/2018</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>04/03/2018</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>222</t>
+  </si>
+  <si>
+    <t>223</t>
+  </si>
+  <si>
+    <t>224</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>226</t>
+  </si>
+  <si>
+    <t>227</t>
+  </si>
+  <si>
+    <t>228</t>
+  </si>
+  <si>
+    <t>229</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>233</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>235</t>
+  </si>
+  <si>
+    <t>236</t>
+  </si>
+  <si>
+    <t>237</t>
+  </si>
+  <si>
+    <t>Не симетричне / не відповідне закриття ядра</t>
+  </si>
+  <si>
+    <t>238</t>
+  </si>
+  <si>
+    <t>05/03/2018</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>241</t>
+  </si>
+  <si>
+    <t>242</t>
+  </si>
+  <si>
+    <t>243</t>
+  </si>
+  <si>
+    <t>244</t>
+  </si>
+  <si>
     <t>**</t>
   </si>
   <si>
@@ -394,9 +499,6 @@
     <t>1</t>
   </si>
   <si>
-    <t>35</t>
-  </si>
-  <si>
     <t>38</t>
   </si>
   <si>
@@ -475,13 +577,7 @@
     <t>Кабельбіндеровий пістолет</t>
   </si>
   <si>
-    <t>28</t>
-  </si>
-  <si>
     <t>Raychem / Raychem TE</t>
-  </si>
-  <si>
-    <t>29</t>
   </si>
   <si>
     <t>Komax Twist BT 188 t / BT 188</t>
@@ -963,7 +1059,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I65"/>
+  <dimension ref="A1:I108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
@@ -2066,6 +2162,737 @@
     <row r="65" spans="1:9">
       <c r="A65" t="s">
         <v>89</v>
+      </c>
+      <c r="B65" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" t="s">
+        <v>33</v>
+      </c>
+      <c r="E65" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" t="s">
+        <v>91</v>
+      </c>
+      <c r="B66" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" t="s">
+        <v>91</v>
+      </c>
+      <c r="B67" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" t="s">
+        <v>33</v>
+      </c>
+      <c r="E67" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" t="s">
+        <v>91</v>
+      </c>
+      <c r="B68" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" t="s">
+        <v>75</v>
+      </c>
+      <c r="D68" t="s">
+        <v>33</v>
+      </c>
+      <c r="E68" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" t="s">
+        <v>91</v>
+      </c>
+      <c r="B69" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" t="s">
+        <v>75</v>
+      </c>
+      <c r="D69" t="s">
+        <v>33</v>
+      </c>
+      <c r="E69" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" t="s">
+        <v>91</v>
+      </c>
+      <c r="B70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" t="s">
+        <v>75</v>
+      </c>
+      <c r="D70" t="s">
+        <v>33</v>
+      </c>
+      <c r="E70" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" t="s">
+        <v>91</v>
+      </c>
+      <c r="B71" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" t="s">
+        <v>75</v>
+      </c>
+      <c r="D71" t="s">
+        <v>33</v>
+      </c>
+      <c r="E71" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" t="s">
+        <v>91</v>
+      </c>
+      <c r="B72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" t="s">
+        <v>75</v>
+      </c>
+      <c r="D72" t="s">
+        <v>33</v>
+      </c>
+      <c r="E72" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" t="s">
+        <v>91</v>
+      </c>
+      <c r="B73" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" t="s">
+        <v>75</v>
+      </c>
+      <c r="D73" t="s">
+        <v>33</v>
+      </c>
+      <c r="E73" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" t="s">
+        <v>91</v>
+      </c>
+      <c r="B74" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" t="s">
+        <v>75</v>
+      </c>
+      <c r="D74" t="s">
+        <v>33</v>
+      </c>
+      <c r="E74" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" t="s">
+        <v>91</v>
+      </c>
+      <c r="B75" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" t="s">
+        <v>75</v>
+      </c>
+      <c r="D75" t="s">
+        <v>33</v>
+      </c>
+      <c r="E75" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" t="s">
+        <v>91</v>
+      </c>
+      <c r="B76" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" t="s">
+        <v>75</v>
+      </c>
+      <c r="D76" t="s">
+        <v>33</v>
+      </c>
+      <c r="E76" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" t="s">
+        <v>91</v>
+      </c>
+      <c r="B77" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" t="s">
+        <v>75</v>
+      </c>
+      <c r="D77" t="s">
+        <v>33</v>
+      </c>
+      <c r="E77" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" t="s">
+        <v>91</v>
+      </c>
+      <c r="B78" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" t="s">
+        <v>75</v>
+      </c>
+      <c r="D78" t="s">
+        <v>33</v>
+      </c>
+      <c r="E78" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" t="s">
+        <v>91</v>
+      </c>
+      <c r="B79" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" t="s">
+        <v>75</v>
+      </c>
+      <c r="D79" t="s">
+        <v>33</v>
+      </c>
+      <c r="E79" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" t="s">
+        <v>91</v>
+      </c>
+      <c r="B80" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" t="s">
+        <v>75</v>
+      </c>
+      <c r="D80" t="s">
+        <v>33</v>
+      </c>
+      <c r="E80" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" t="s">
+        <v>91</v>
+      </c>
+      <c r="B81" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" t="s">
+        <v>75</v>
+      </c>
+      <c r="D81" t="s">
+        <v>33</v>
+      </c>
+      <c r="E81" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" t="s">
+        <v>91</v>
+      </c>
+      <c r="B82" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" t="s">
+        <v>75</v>
+      </c>
+      <c r="D82" t="s">
+        <v>33</v>
+      </c>
+      <c r="E82" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" t="s">
+        <v>91</v>
+      </c>
+      <c r="B83" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" t="s">
+        <v>75</v>
+      </c>
+      <c r="D83" t="s">
+        <v>33</v>
+      </c>
+      <c r="E83" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" t="s">
+        <v>91</v>
+      </c>
+      <c r="B84" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" t="s">
+        <v>75</v>
+      </c>
+      <c r="D84" t="s">
+        <v>33</v>
+      </c>
+      <c r="E84" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" t="s">
+        <v>91</v>
+      </c>
+      <c r="B85" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" t="s">
+        <v>75</v>
+      </c>
+      <c r="D85" t="s">
+        <v>33</v>
+      </c>
+      <c r="E85" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" t="s">
+        <v>91</v>
+      </c>
+      <c r="B86" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" t="s">
+        <v>75</v>
+      </c>
+      <c r="D86" t="s">
+        <v>33</v>
+      </c>
+      <c r="E86" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" t="s">
+        <v>91</v>
+      </c>
+      <c r="B87" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87" t="s">
+        <v>75</v>
+      </c>
+      <c r="D87" t="s">
+        <v>33</v>
+      </c>
+      <c r="E87" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" t="s">
+        <v>91</v>
+      </c>
+      <c r="B88" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88" t="s">
+        <v>75</v>
+      </c>
+      <c r="D88" t="s">
+        <v>33</v>
+      </c>
+      <c r="E88" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" t="s">
+        <v>91</v>
+      </c>
+      <c r="B89" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89" t="s">
+        <v>75</v>
+      </c>
+      <c r="D89" t="s">
+        <v>33</v>
+      </c>
+      <c r="E89" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" t="s">
+        <v>91</v>
+      </c>
+      <c r="B90" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90" t="s">
+        <v>75</v>
+      </c>
+      <c r="D90" t="s">
+        <v>33</v>
+      </c>
+      <c r="E90" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" t="s">
+        <v>91</v>
+      </c>
+      <c r="B91" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" t="s">
+        <v>75</v>
+      </c>
+      <c r="D91" t="s">
+        <v>33</v>
+      </c>
+      <c r="E91" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92" t="s">
+        <v>75</v>
+      </c>
+      <c r="D92" t="s">
+        <v>33</v>
+      </c>
+      <c r="E92" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" t="s">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93" t="s">
+        <v>75</v>
+      </c>
+      <c r="D93" t="s">
+        <v>33</v>
+      </c>
+      <c r="E93" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" t="s">
+        <v>91</v>
+      </c>
+      <c r="B94" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94" t="s">
+        <v>75</v>
+      </c>
+      <c r="D94" t="s">
+        <v>33</v>
+      </c>
+      <c r="E94" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" t="s">
+        <v>91</v>
+      </c>
+      <c r="B95" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95" t="s">
+        <v>75</v>
+      </c>
+      <c r="D95" t="s">
+        <v>33</v>
+      </c>
+      <c r="E95" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" t="s">
+        <v>91</v>
+      </c>
+      <c r="B96" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96" t="s">
+        <v>75</v>
+      </c>
+      <c r="D96" t="s">
+        <v>33</v>
+      </c>
+      <c r="E96" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" t="s">
+        <v>91</v>
+      </c>
+      <c r="B97" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97" t="s">
+        <v>75</v>
+      </c>
+      <c r="D97" t="s">
+        <v>33</v>
+      </c>
+      <c r="E97" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" t="s">
+        <v>91</v>
+      </c>
+      <c r="B98" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98" t="s">
+        <v>75</v>
+      </c>
+      <c r="D98" t="s">
+        <v>33</v>
+      </c>
+      <c r="E98" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" t="s">
+        <v>91</v>
+      </c>
+      <c r="B99" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" t="s">
+        <v>75</v>
+      </c>
+      <c r="D99" t="s">
+        <v>116</v>
+      </c>
+      <c r="E99" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" t="s">
+        <v>91</v>
+      </c>
+      <c r="B100" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" t="s">
+        <v>75</v>
+      </c>
+      <c r="D100" t="s">
+        <v>116</v>
+      </c>
+      <c r="E100" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" t="s">
+        <v>118</v>
+      </c>
+      <c r="B101" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" t="s">
+        <v>75</v>
+      </c>
+      <c r="D101" t="s">
+        <v>33</v>
+      </c>
+      <c r="E101" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" t="s">
+        <v>118</v>
+      </c>
+      <c r="B102" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" t="s">
+        <v>75</v>
+      </c>
+      <c r="D102" t="s">
+        <v>33</v>
+      </c>
+      <c r="E102" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" t="s">
+        <v>118</v>
+      </c>
+      <c r="B103" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" t="s">
+        <v>75</v>
+      </c>
+      <c r="D103" t="s">
+        <v>33</v>
+      </c>
+      <c r="E103" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" t="s">
+        <v>118</v>
+      </c>
+      <c r="B104" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" t="s">
+        <v>75</v>
+      </c>
+      <c r="D104" t="s">
+        <v>33</v>
+      </c>
+      <c r="E104" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" t="s">
+        <v>118</v>
+      </c>
+      <c r="B105" t="s">
+        <v>8</v>
+      </c>
+      <c r="C105" t="s">
+        <v>75</v>
+      </c>
+      <c r="D105" t="s">
+        <v>33</v>
+      </c>
+      <c r="E105" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" t="s">
+        <v>118</v>
+      </c>
+      <c r="B106" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" t="s">
+        <v>75</v>
+      </c>
+      <c r="D106" t="s">
+        <v>10</v>
+      </c>
+      <c r="E106" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" t="s">
+        <v>118</v>
+      </c>
+      <c r="B107" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" t="s">
+        <v>75</v>
+      </c>
+      <c r="D107" t="s">
+        <v>33</v>
+      </c>
+      <c r="E107" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2103,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -2115,10 +2942,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2126,7 +2953,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>9</v>
@@ -2135,10 +2962,10 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>95</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2146,7 +2973,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>9</v>
@@ -2155,7 +2982,7 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>96</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2163,7 +2990,7 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -2172,7 +2999,7 @@
         <v>70</v>
       </c>
       <c r="E4" t="s">
-        <v>97</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2180,7 +3007,7 @@
         <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -2189,7 +3016,7 @@
         <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>98</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2197,7 +3024,7 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -2214,7 +3041,7 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -2231,7 +3058,7 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -2248,7 +3075,7 @@
         <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -2265,7 +3092,7 @@
         <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
@@ -2274,7 +3101,7 @@
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>99</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2282,7 +3109,7 @@
         <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
@@ -2291,7 +3118,7 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>100</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2299,7 +3126,7 @@
         <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
@@ -2308,7 +3135,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>101</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2316,7 +3143,7 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
@@ -2325,7 +3152,7 @@
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>102</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2333,7 +3160,7 @@
         <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
@@ -2342,7 +3169,7 @@
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>103</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2350,16 +3177,16 @@
         <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="C15" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="D15" t="s">
         <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2367,16 +3194,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="C16" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="D16" t="s">
         <v>33</v>
       </c>
       <c r="E16" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2384,7 +3211,7 @@
         <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
@@ -2393,7 +3220,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>107</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2401,7 +3228,7 @@
         <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
@@ -2410,7 +3237,7 @@
         <v>33</v>
       </c>
       <c r="E18" t="s">
-        <v>108</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2418,7 +3245,7 @@
         <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
@@ -2427,7 +3254,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2435,7 +3262,7 @@
         <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
@@ -2444,7 +3271,7 @@
         <v>33</v>
       </c>
       <c r="E20" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2452,7 +3279,7 @@
         <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
@@ -2461,7 +3288,7 @@
         <v>33</v>
       </c>
       <c r="E21" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2469,7 +3296,7 @@
         <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
@@ -2478,7 +3305,7 @@
         <v>33</v>
       </c>
       <c r="E22" t="s">
-        <v>112</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2486,7 +3313,7 @@
         <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
@@ -2495,7 +3322,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2503,7 +3330,7 @@
         <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
@@ -2512,7 +3339,7 @@
         <v>33</v>
       </c>
       <c r="E24" t="s">
-        <v>114</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2520,7 +3347,7 @@
         <v>40</v>
       </c>
       <c r="B25" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="C25" t="s">
         <v>9</v>
@@ -2529,7 +3356,7 @@
         <v>33</v>
       </c>
       <c r="E25" t="s">
-        <v>115</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2537,7 +3364,7 @@
         <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="C26" t="s">
         <v>9</v>
@@ -2546,7 +3373,7 @@
         <v>33</v>
       </c>
       <c r="E26" t="s">
-        <v>116</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2554,7 +3381,7 @@
         <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="C27" t="s">
         <v>9</v>
@@ -2563,7 +3390,7 @@
         <v>33</v>
       </c>
       <c r="E27" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2571,7 +3398,7 @@
         <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="C28" t="s">
         <v>9</v>
@@ -2580,7 +3407,7 @@
         <v>33</v>
       </c>
       <c r="E28" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2588,7 +3415,7 @@
         <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="C29" t="s">
         <v>9</v>
@@ -2597,7 +3424,7 @@
         <v>33</v>
       </c>
       <c r="E29" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2605,7 +3432,7 @@
         <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="C30" t="s">
         <v>9</v>
@@ -2614,12 +3441,12 @@
         <v>33</v>
       </c>
       <c r="E30" t="s">
-        <v>120</v>
+        <v>155</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2657,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>121</v>
+        <v>156</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -2669,10 +3496,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>122</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2680,7 +3507,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>43</v>
@@ -2697,7 +3524,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>9</v>
@@ -2714,10 +3541,10 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="C4" t="s">
-        <v>124</v>
+        <v>159</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -2731,10 +3558,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="C5" t="s">
-        <v>124</v>
+        <v>159</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -2748,7 +3575,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -2765,7 +3592,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -2782,7 +3609,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -2799,7 +3626,7 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -2816,7 +3643,7 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
@@ -2825,7 +3652,7 @@
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2833,7 +3660,7 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
@@ -2850,7 +3677,7 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
@@ -2867,7 +3694,7 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
@@ -2876,7 +3703,7 @@
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>126</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2884,7 +3711,7 @@
         <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
@@ -2893,7 +3720,7 @@
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>127</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2901,7 +3728,7 @@
         <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
@@ -2910,7 +3737,7 @@
         <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>128</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2918,7 +3745,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="C16" t="s">
         <v>43</v>
@@ -2927,7 +3754,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>129</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2935,7 +3762,7 @@
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="C17" t="s">
         <v>43</v>
@@ -2944,7 +3771,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>130</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2952,7 +3779,7 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="C18" t="s">
         <v>43</v>
@@ -2961,7 +3788,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2969,7 +3796,7 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="C19" t="s">
         <v>43</v>
@@ -2978,7 +3805,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>131</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2986,7 +3813,7 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="C20" t="s">
         <v>43</v>
@@ -2995,7 +3822,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>132</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3003,7 +3830,7 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="C21" t="s">
         <v>43</v>
@@ -3012,7 +3839,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>133</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3020,7 +3847,7 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
@@ -3029,7 +3856,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>134</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3037,7 +3864,7 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
@@ -3046,7 +3873,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>135</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3054,7 +3881,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
@@ -3063,7 +3890,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>136</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3071,7 +3898,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="C25" t="s">
         <v>9</v>
@@ -3080,7 +3907,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>137</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3088,7 +3915,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="C26" t="s">
         <v>9</v>
@@ -3097,7 +3924,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3105,7 +3932,7 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="C27" t="s">
         <v>9</v>
@@ -3114,7 +3941,7 @@
         <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3122,7 +3949,7 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="C28" t="s">
         <v>9</v>
@@ -3131,7 +3958,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>107</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3139,7 +3966,7 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="C29" t="s">
         <v>9</v>
@@ -3148,7 +3975,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3156,7 +3983,7 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="C30" t="s">
         <v>9</v>
@@ -3165,7 +3992,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>140</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3173,7 +4000,7 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="C31" t="s">
         <v>9</v>
@@ -3182,7 +4009,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>141</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3190,7 +4017,7 @@
         <v>24</v>
       </c>
       <c r="B32" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="C32" t="s">
         <v>9</v>
@@ -3199,7 +4026,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3207,7 +4034,7 @@
         <v>24</v>
       </c>
       <c r="B33" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="C33" t="s">
         <v>9</v>
@@ -3216,7 +4043,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>143</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3224,7 +4051,7 @@
         <v>24</v>
       </c>
       <c r="B34" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="C34" t="s">
         <v>9</v>
@@ -3233,7 +4060,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3241,7 +4068,7 @@
         <v>24</v>
       </c>
       <c r="B35" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="C35" t="s">
         <v>9</v>
@@ -3250,7 +4077,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>145</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3258,7 +4085,7 @@
         <v>24</v>
       </c>
       <c r="B36" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="C36" t="s">
         <v>9</v>
@@ -3267,7 +4094,7 @@
         <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>146</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3275,7 +4102,7 @@
         <v>24</v>
       </c>
       <c r="B37" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="C37" t="s">
         <v>9</v>
@@ -3284,7 +4111,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>147</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3292,7 +4119,7 @@
         <v>24</v>
       </c>
       <c r="B38" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="C38" t="s">
         <v>9</v>
@@ -3309,7 +4136,7 @@
         <v>24</v>
       </c>
       <c r="B39" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="C39" t="s">
         <v>9</v>
@@ -3326,7 +4153,7 @@
         <v>45</v>
       </c>
       <c r="B40" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="C40" t="s">
         <v>9</v>
@@ -3335,7 +4162,7 @@
         <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3343,7 +4170,7 @@
         <v>72</v>
       </c>
       <c r="B41" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="C41" t="s">
         <v>9</v>
@@ -3352,12 +4179,12 @@
         <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -3395,7 +4222,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>150</v>
+        <v>184</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -3407,10 +4234,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>151</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3427,10 +4254,10 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>152</v>
+        <v>99</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>153</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3447,18 +4274,18 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>154</v>
+        <v>100</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/eq_log/general equipment log.xlsx
+++ b/eq_log/general equipment log.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="190">
   <si>
     <t>дата</t>
   </si>
@@ -389,6 +389,9 @@
   </si>
   <si>
     <t>244</t>
+  </si>
+  <si>
+    <t>245</t>
   </si>
   <si>
     <t>**</t>
@@ -1059,7 +1062,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I108"/>
+  <dimension ref="A1:I109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
@@ -2892,7 +2895,24 @@
     </row>
     <row r="108" spans="1:9">
       <c r="A108" t="s">
+        <v>118</v>
+      </c>
+      <c r="B108" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" t="s">
+        <v>75</v>
+      </c>
+      <c r="D108" t="s">
+        <v>116</v>
+      </c>
+      <c r="E108" t="s">
         <v>124</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2930,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -2942,10 +2962,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2953,7 +2973,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>9</v>
@@ -2962,10 +2982,10 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2973,7 +2993,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>9</v>
@@ -2982,7 +3002,7 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2990,7 +3010,7 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -2999,7 +3019,7 @@
         <v>70</v>
       </c>
       <c r="E4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3007,7 +3027,7 @@
         <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -3016,7 +3036,7 @@
         <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3024,7 +3044,7 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -3041,7 +3061,7 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -3058,7 +3078,7 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -3075,7 +3095,7 @@
         <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -3092,7 +3112,7 @@
         <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
@@ -3101,7 +3121,7 @@
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -3109,7 +3129,7 @@
         <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
@@ -3118,7 +3138,7 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -3126,7 +3146,7 @@
         <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
@@ -3135,7 +3155,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -3143,7 +3163,7 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
@@ -3152,7 +3172,7 @@
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -3160,7 +3180,7 @@
         <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
@@ -3169,7 +3189,7 @@
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -3177,16 +3197,16 @@
         <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D15" t="s">
         <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3194,16 +3214,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D16" t="s">
         <v>33</v>
       </c>
       <c r="E16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3211,7 +3231,7 @@
         <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
@@ -3220,7 +3240,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3228,7 +3248,7 @@
         <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
@@ -3237,7 +3257,7 @@
         <v>33</v>
       </c>
       <c r="E18" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3245,7 +3265,7 @@
         <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
@@ -3254,7 +3274,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3262,7 +3282,7 @@
         <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
@@ -3271,7 +3291,7 @@
         <v>33</v>
       </c>
       <c r="E20" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3279,7 +3299,7 @@
         <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
@@ -3288,7 +3308,7 @@
         <v>33</v>
       </c>
       <c r="E21" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3296,7 +3316,7 @@
         <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
@@ -3305,7 +3325,7 @@
         <v>33</v>
       </c>
       <c r="E22" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3313,7 +3333,7 @@
         <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
@@ -3322,7 +3342,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3330,7 +3350,7 @@
         <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
@@ -3339,7 +3359,7 @@
         <v>33</v>
       </c>
       <c r="E24" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3347,7 +3367,7 @@
         <v>40</v>
       </c>
       <c r="B25" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C25" t="s">
         <v>9</v>
@@ -3356,7 +3376,7 @@
         <v>33</v>
       </c>
       <c r="E25" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3364,7 +3384,7 @@
         <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C26" t="s">
         <v>9</v>
@@ -3373,7 +3393,7 @@
         <v>33</v>
       </c>
       <c r="E26" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3381,7 +3401,7 @@
         <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C27" t="s">
         <v>9</v>
@@ -3390,7 +3410,7 @@
         <v>33</v>
       </c>
       <c r="E27" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3398,7 +3418,7 @@
         <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C28" t="s">
         <v>9</v>
@@ -3407,7 +3427,7 @@
         <v>33</v>
       </c>
       <c r="E28" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3415,7 +3435,7 @@
         <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C29" t="s">
         <v>9</v>
@@ -3424,7 +3444,7 @@
         <v>33</v>
       </c>
       <c r="E29" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3432,7 +3452,7 @@
         <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C30" t="s">
         <v>9</v>
@@ -3441,12 +3461,12 @@
         <v>33</v>
       </c>
       <c r="E30" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3484,7 +3504,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -3496,10 +3516,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3507,7 +3527,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>43</v>
@@ -3524,7 +3544,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>9</v>
@@ -3541,10 +3561,10 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -3558,10 +3578,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -3575,7 +3595,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -3592,7 +3612,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -3609,7 +3629,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -3626,7 +3646,7 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -3643,7 +3663,7 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
@@ -3660,7 +3680,7 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
@@ -3677,7 +3697,7 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
@@ -3694,7 +3714,7 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
@@ -3703,7 +3723,7 @@
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -3711,7 +3731,7 @@
         <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
@@ -3720,7 +3740,7 @@
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -3728,7 +3748,7 @@
         <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
@@ -3737,7 +3757,7 @@
         <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3745,7 +3765,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C16" t="s">
         <v>43</v>
@@ -3754,7 +3774,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3762,7 +3782,7 @@
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C17" t="s">
         <v>43</v>
@@ -3771,7 +3791,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3779,7 +3799,7 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C18" t="s">
         <v>43</v>
@@ -3788,7 +3808,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3796,7 +3816,7 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C19" t="s">
         <v>43</v>
@@ -3805,7 +3825,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3813,7 +3833,7 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C20" t="s">
         <v>43</v>
@@ -3822,7 +3842,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3830,7 +3850,7 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C21" t="s">
         <v>43</v>
@@ -3839,7 +3859,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3847,7 +3867,7 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
@@ -3856,7 +3876,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3864,7 +3884,7 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
@@ -3873,7 +3893,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3881,7 +3901,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
@@ -3890,7 +3910,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3898,7 +3918,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C25" t="s">
         <v>9</v>
@@ -3907,7 +3927,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3915,7 +3935,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C26" t="s">
         <v>9</v>
@@ -3924,7 +3944,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3932,7 +3952,7 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C27" t="s">
         <v>9</v>
@@ -3941,7 +3961,7 @@
         <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3949,7 +3969,7 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C28" t="s">
         <v>9</v>
@@ -3958,7 +3978,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3966,7 +3986,7 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C29" t="s">
         <v>9</v>
@@ -3975,7 +3995,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3983,7 +4003,7 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C30" t="s">
         <v>9</v>
@@ -3992,7 +4012,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -4000,7 +4020,7 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C31" t="s">
         <v>9</v>
@@ -4009,7 +4029,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -4017,7 +4037,7 @@
         <v>24</v>
       </c>
       <c r="B32" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C32" t="s">
         <v>9</v>
@@ -4026,7 +4046,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -4034,7 +4054,7 @@
         <v>24</v>
       </c>
       <c r="B33" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C33" t="s">
         <v>9</v>
@@ -4043,7 +4063,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -4051,7 +4071,7 @@
         <v>24</v>
       </c>
       <c r="B34" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C34" t="s">
         <v>9</v>
@@ -4060,7 +4080,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -4068,7 +4088,7 @@
         <v>24</v>
       </c>
       <c r="B35" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C35" t="s">
         <v>9</v>
@@ -4077,7 +4097,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -4085,7 +4105,7 @@
         <v>24</v>
       </c>
       <c r="B36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C36" t="s">
         <v>9</v>
@@ -4094,7 +4114,7 @@
         <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -4102,7 +4122,7 @@
         <v>24</v>
       </c>
       <c r="B37" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C37" t="s">
         <v>9</v>
@@ -4111,7 +4131,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -4119,7 +4139,7 @@
         <v>24</v>
       </c>
       <c r="B38" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C38" t="s">
         <v>9</v>
@@ -4136,7 +4156,7 @@
         <v>24</v>
       </c>
       <c r="B39" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C39" t="s">
         <v>9</v>
@@ -4153,7 +4173,7 @@
         <v>45</v>
       </c>
       <c r="B40" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C40" t="s">
         <v>9</v>
@@ -4162,7 +4182,7 @@
         <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -4170,7 +4190,7 @@
         <v>72</v>
       </c>
       <c r="B41" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C41" t="s">
         <v>9</v>
@@ -4179,12 +4199,12 @@
         <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -4222,7 +4242,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -4234,10 +4254,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -4257,7 +4277,7 @@
         <v>99</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4277,15 +4297,15 @@
         <v>100</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/eq_log/general equipment log.xlsx
+++ b/eq_log/general equipment log.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="191">
   <si>
     <t>дата</t>
   </si>
@@ -392,6 +392,9 @@
   </si>
   <si>
     <t>245</t>
+  </si>
+  <si>
+    <t>246</t>
   </si>
   <si>
     <t>**</t>
@@ -1062,7 +1065,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I109"/>
+  <dimension ref="A1:I110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
@@ -2912,7 +2915,24 @@
     </row>
     <row r="109" spans="1:9">
       <c r="A109" t="s">
+        <v>118</v>
+      </c>
+      <c r="B109" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" t="s">
+        <v>75</v>
+      </c>
+      <c r="D109" t="s">
+        <v>116</v>
+      </c>
+      <c r="E109" t="s">
         <v>125</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2950,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -2962,10 +2982,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2973,7 +2993,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>9</v>
@@ -2982,10 +3002,10 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2993,7 +3013,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>9</v>
@@ -3002,7 +3022,7 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3010,7 +3030,7 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -3019,7 +3039,7 @@
         <v>70</v>
       </c>
       <c r="E4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3027,7 +3047,7 @@
         <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -3036,7 +3056,7 @@
         <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3044,7 +3064,7 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -3061,7 +3081,7 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -3078,7 +3098,7 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -3095,7 +3115,7 @@
         <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -3112,7 +3132,7 @@
         <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
@@ -3121,7 +3141,7 @@
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -3129,7 +3149,7 @@
         <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
@@ -3138,7 +3158,7 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -3146,7 +3166,7 @@
         <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
@@ -3155,7 +3175,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -3163,7 +3183,7 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
@@ -3172,7 +3192,7 @@
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -3180,7 +3200,7 @@
         <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
@@ -3189,7 +3209,7 @@
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -3197,16 +3217,16 @@
         <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C15" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D15" t="s">
         <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3214,16 +3234,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D16" t="s">
         <v>33</v>
       </c>
       <c r="E16" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3231,7 +3251,7 @@
         <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
@@ -3240,7 +3260,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3248,7 +3268,7 @@
         <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
@@ -3257,7 +3277,7 @@
         <v>33</v>
       </c>
       <c r="E18" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3265,7 +3285,7 @@
         <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
@@ -3274,7 +3294,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3282,7 +3302,7 @@
         <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
@@ -3291,7 +3311,7 @@
         <v>33</v>
       </c>
       <c r="E20" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3299,7 +3319,7 @@
         <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
@@ -3308,7 +3328,7 @@
         <v>33</v>
       </c>
       <c r="E21" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3316,7 +3336,7 @@
         <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
@@ -3325,7 +3345,7 @@
         <v>33</v>
       </c>
       <c r="E22" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3333,7 +3353,7 @@
         <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
@@ -3342,7 +3362,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3350,7 +3370,7 @@
         <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
@@ -3359,7 +3379,7 @@
         <v>33</v>
       </c>
       <c r="E24" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3367,7 +3387,7 @@
         <v>40</v>
       </c>
       <c r="B25" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C25" t="s">
         <v>9</v>
@@ -3376,7 +3396,7 @@
         <v>33</v>
       </c>
       <c r="E25" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3384,7 +3404,7 @@
         <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C26" t="s">
         <v>9</v>
@@ -3393,7 +3413,7 @@
         <v>33</v>
       </c>
       <c r="E26" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3401,7 +3421,7 @@
         <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C27" t="s">
         <v>9</v>
@@ -3410,7 +3430,7 @@
         <v>33</v>
       </c>
       <c r="E27" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3418,7 +3438,7 @@
         <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C28" t="s">
         <v>9</v>
@@ -3427,7 +3447,7 @@
         <v>33</v>
       </c>
       <c r="E28" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3435,7 +3455,7 @@
         <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C29" t="s">
         <v>9</v>
@@ -3444,7 +3464,7 @@
         <v>33</v>
       </c>
       <c r="E29" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3452,7 +3472,7 @@
         <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C30" t="s">
         <v>9</v>
@@ -3461,12 +3481,12 @@
         <v>33</v>
       </c>
       <c r="E30" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -3504,7 +3524,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -3516,10 +3536,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3527,7 +3547,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>43</v>
@@ -3544,7 +3564,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>9</v>
@@ -3561,10 +3581,10 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -3578,10 +3598,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -3595,7 +3615,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -3612,7 +3632,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -3629,7 +3649,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -3646,7 +3666,7 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -3663,7 +3683,7 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
@@ -3680,7 +3700,7 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
@@ -3697,7 +3717,7 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
@@ -3714,7 +3734,7 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
@@ -3723,7 +3743,7 @@
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -3731,7 +3751,7 @@
         <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
@@ -3740,7 +3760,7 @@
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -3748,7 +3768,7 @@
         <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
@@ -3757,7 +3777,7 @@
         <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3765,7 +3785,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C16" t="s">
         <v>43</v>
@@ -3774,7 +3794,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3782,7 +3802,7 @@
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C17" t="s">
         <v>43</v>
@@ -3791,7 +3811,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3799,7 +3819,7 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C18" t="s">
         <v>43</v>
@@ -3808,7 +3828,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3816,7 +3836,7 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C19" t="s">
         <v>43</v>
@@ -3825,7 +3845,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3833,7 +3853,7 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C20" t="s">
         <v>43</v>
@@ -3842,7 +3862,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3850,7 +3870,7 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C21" t="s">
         <v>43</v>
@@ -3859,7 +3879,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3867,7 +3887,7 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
@@ -3876,7 +3896,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3884,7 +3904,7 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
@@ -3893,7 +3913,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3901,7 +3921,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
@@ -3910,7 +3930,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3918,7 +3938,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C25" t="s">
         <v>9</v>
@@ -3927,7 +3947,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3935,7 +3955,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C26" t="s">
         <v>9</v>
@@ -3944,7 +3964,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3952,7 +3972,7 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C27" t="s">
         <v>9</v>
@@ -3961,7 +3981,7 @@
         <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3969,7 +3989,7 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C28" t="s">
         <v>9</v>
@@ -3978,7 +3998,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3986,7 +4006,7 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C29" t="s">
         <v>9</v>
@@ -3995,7 +4015,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -4003,7 +4023,7 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C30" t="s">
         <v>9</v>
@@ -4012,7 +4032,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -4020,7 +4040,7 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C31" t="s">
         <v>9</v>
@@ -4029,7 +4049,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -4037,7 +4057,7 @@
         <v>24</v>
       </c>
       <c r="B32" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C32" t="s">
         <v>9</v>
@@ -4046,7 +4066,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -4054,7 +4074,7 @@
         <v>24</v>
       </c>
       <c r="B33" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C33" t="s">
         <v>9</v>
@@ -4063,7 +4083,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -4071,7 +4091,7 @@
         <v>24</v>
       </c>
       <c r="B34" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C34" t="s">
         <v>9</v>
@@ -4080,7 +4100,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -4088,7 +4108,7 @@
         <v>24</v>
       </c>
       <c r="B35" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C35" t="s">
         <v>9</v>
@@ -4097,7 +4117,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -4105,7 +4125,7 @@
         <v>24</v>
       </c>
       <c r="B36" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C36" t="s">
         <v>9</v>
@@ -4114,7 +4134,7 @@
         <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -4122,7 +4142,7 @@
         <v>24</v>
       </c>
       <c r="B37" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C37" t="s">
         <v>9</v>
@@ -4131,7 +4151,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -4139,7 +4159,7 @@
         <v>24</v>
       </c>
       <c r="B38" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C38" t="s">
         <v>9</v>
@@ -4156,7 +4176,7 @@
         <v>24</v>
       </c>
       <c r="B39" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C39" t="s">
         <v>9</v>
@@ -4173,7 +4193,7 @@
         <v>45</v>
       </c>
       <c r="B40" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C40" t="s">
         <v>9</v>
@@ -4182,7 +4202,7 @@
         <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -4190,7 +4210,7 @@
         <v>72</v>
       </c>
       <c r="B41" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C41" t="s">
         <v>9</v>
@@ -4199,12 +4219,12 @@
         <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -4242,7 +4262,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -4254,10 +4274,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -4277,7 +4297,7 @@
         <v>99</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4297,15 +4317,15 @@
         <v>100</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/eq_log/general equipment log.xlsx
+++ b/eq_log/general equipment log.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="202">
   <si>
     <t>дата</t>
   </si>
@@ -395,6 +395,39 @@
   </si>
   <si>
     <t>246</t>
+  </si>
+  <si>
+    <t>247</t>
+  </si>
+  <si>
+    <t>248</t>
+  </si>
+  <si>
+    <t>1300</t>
+  </si>
+  <si>
+    <t>1301</t>
+  </si>
+  <si>
+    <t>1302</t>
+  </si>
+  <si>
+    <t>1303</t>
+  </si>
+  <si>
+    <t>1304</t>
+  </si>
+  <si>
+    <t>1305</t>
+  </si>
+  <si>
+    <t>1306</t>
+  </si>
+  <si>
+    <t>1307</t>
+  </si>
+  <si>
+    <t>1308</t>
   </si>
   <si>
     <t>**</t>
@@ -1065,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I110"/>
+  <dimension ref="A1:I121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
@@ -2932,7 +2965,194 @@
     </row>
     <row r="110" spans="1:9">
       <c r="A110" t="s">
+        <v>118</v>
+      </c>
+      <c r="B110" t="s">
+        <v>8</v>
+      </c>
+      <c r="C110" t="s">
+        <v>75</v>
+      </c>
+      <c r="D110" t="s">
+        <v>33</v>
+      </c>
+      <c r="E110" t="s">
         <v>126</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" t="s">
+        <v>118</v>
+      </c>
+      <c r="B111" t="s">
+        <v>8</v>
+      </c>
+      <c r="C111" t="s">
+        <v>75</v>
+      </c>
+      <c r="D111" t="s">
+        <v>33</v>
+      </c>
+      <c r="E111" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" t="s">
+        <v>118</v>
+      </c>
+      <c r="B112" t="s">
+        <v>8</v>
+      </c>
+      <c r="C112" t="s">
+        <v>75</v>
+      </c>
+      <c r="D112" t="s">
+        <v>33</v>
+      </c>
+      <c r="E112" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" t="s">
+        <v>118</v>
+      </c>
+      <c r="B113" t="s">
+        <v>8</v>
+      </c>
+      <c r="C113" t="s">
+        <v>75</v>
+      </c>
+      <c r="D113" t="s">
+        <v>33</v>
+      </c>
+      <c r="E113" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" t="s">
+        <v>118</v>
+      </c>
+      <c r="B114" t="s">
+        <v>8</v>
+      </c>
+      <c r="C114" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" t="s">
+        <v>33</v>
+      </c>
+      <c r="E114" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" t="s">
+        <v>118</v>
+      </c>
+      <c r="B115" t="s">
+        <v>8</v>
+      </c>
+      <c r="C115" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" t="s">
+        <v>33</v>
+      </c>
+      <c r="E115" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" t="s">
+        <v>118</v>
+      </c>
+      <c r="B116" t="s">
+        <v>8</v>
+      </c>
+      <c r="C116" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" t="s">
+        <v>33</v>
+      </c>
+      <c r="E116" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" t="s">
+        <v>118</v>
+      </c>
+      <c r="B117" t="s">
+        <v>8</v>
+      </c>
+      <c r="C117" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" t="s">
+        <v>33</v>
+      </c>
+      <c r="E117" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118" t="s">
+        <v>118</v>
+      </c>
+      <c r="B118" t="s">
+        <v>8</v>
+      </c>
+      <c r="C118" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" t="s">
+        <v>33</v>
+      </c>
+      <c r="E118" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" t="s">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>8</v>
+      </c>
+      <c r="C119" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" t="s">
+        <v>33</v>
+      </c>
+      <c r="E119" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" t="s">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>8</v>
+      </c>
+      <c r="C120" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" t="s">
+        <v>33</v>
+      </c>
+      <c r="E120" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -2970,7 +3190,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -2982,10 +3202,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2993,7 +3213,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>9</v>
@@ -3002,10 +3222,10 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3013,7 +3233,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>9</v>
@@ -3022,7 +3242,7 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3030,7 +3250,7 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -3039,7 +3259,7 @@
         <v>70</v>
       </c>
       <c r="E4" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3047,7 +3267,7 @@
         <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -3056,7 +3276,7 @@
         <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3064,7 +3284,7 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -3081,7 +3301,7 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -3098,7 +3318,7 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -3115,7 +3335,7 @@
         <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -3132,7 +3352,7 @@
         <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
@@ -3141,7 +3361,7 @@
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -3149,7 +3369,7 @@
         <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
@@ -3158,7 +3378,7 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -3166,7 +3386,7 @@
         <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
@@ -3175,7 +3395,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -3183,7 +3403,7 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
@@ -3192,7 +3412,7 @@
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -3200,7 +3420,7 @@
         <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
@@ -3209,7 +3429,7 @@
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -3217,16 +3437,16 @@
         <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="C15" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="D15" t="s">
         <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3234,16 +3454,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="C16" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="D16" t="s">
         <v>33</v>
       </c>
       <c r="E16" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3251,7 +3471,7 @@
         <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
@@ -3260,7 +3480,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3268,7 +3488,7 @@
         <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
@@ -3277,7 +3497,7 @@
         <v>33</v>
       </c>
       <c r="E18" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3285,7 +3505,7 @@
         <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
@@ -3294,7 +3514,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3302,7 +3522,7 @@
         <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
@@ -3311,7 +3531,7 @@
         <v>33</v>
       </c>
       <c r="E20" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3319,7 +3539,7 @@
         <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
@@ -3328,7 +3548,7 @@
         <v>33</v>
       </c>
       <c r="E21" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3336,7 +3556,7 @@
         <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
@@ -3345,7 +3565,7 @@
         <v>33</v>
       </c>
       <c r="E22" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3353,7 +3573,7 @@
         <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
@@ -3362,7 +3582,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3370,7 +3590,7 @@
         <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
@@ -3379,7 +3599,7 @@
         <v>33</v>
       </c>
       <c r="E24" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3387,7 +3607,7 @@
         <v>40</v>
       </c>
       <c r="B25" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="C25" t="s">
         <v>9</v>
@@ -3396,7 +3616,7 @@
         <v>33</v>
       </c>
       <c r="E25" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3404,7 +3624,7 @@
         <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="C26" t="s">
         <v>9</v>
@@ -3413,7 +3633,7 @@
         <v>33</v>
       </c>
       <c r="E26" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3421,7 +3641,7 @@
         <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="C27" t="s">
         <v>9</v>
@@ -3430,7 +3650,7 @@
         <v>33</v>
       </c>
       <c r="E27" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3438,7 +3658,7 @@
         <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="C28" t="s">
         <v>9</v>
@@ -3447,7 +3667,7 @@
         <v>33</v>
       </c>
       <c r="E28" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3455,7 +3675,7 @@
         <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="C29" t="s">
         <v>9</v>
@@ -3464,7 +3684,7 @@
         <v>33</v>
       </c>
       <c r="E29" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3472,7 +3692,7 @@
         <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="C30" t="s">
         <v>9</v>
@@ -3481,12 +3701,12 @@
         <v>33</v>
       </c>
       <c r="E30" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -3524,7 +3744,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -3536,10 +3756,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3547,7 +3767,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>43</v>
@@ -3564,7 +3784,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>9</v>
@@ -3581,10 +3801,10 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C4" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -3598,10 +3818,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C5" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -3615,7 +3835,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -3632,7 +3852,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -3649,7 +3869,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -3666,7 +3886,7 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -3683,7 +3903,7 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
@@ -3700,7 +3920,7 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
@@ -3717,7 +3937,7 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
@@ -3734,7 +3954,7 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
@@ -3743,7 +3963,7 @@
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -3751,7 +3971,7 @@
         <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
@@ -3760,7 +3980,7 @@
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -3768,7 +3988,7 @@
         <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
@@ -3777,7 +3997,7 @@
         <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3785,7 +4005,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C16" t="s">
         <v>43</v>
@@ -3794,7 +4014,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3802,7 +4022,7 @@
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C17" t="s">
         <v>43</v>
@@ -3811,7 +4031,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3819,7 +4039,7 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C18" t="s">
         <v>43</v>
@@ -3828,7 +4048,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3836,7 +4056,7 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C19" t="s">
         <v>43</v>
@@ -3845,7 +4065,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3853,7 +4073,7 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C20" t="s">
         <v>43</v>
@@ -3862,7 +4082,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3870,7 +4090,7 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C21" t="s">
         <v>43</v>
@@ -3879,7 +4099,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3887,7 +4107,7 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
@@ -3896,7 +4116,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3904,7 +4124,7 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
@@ -3913,7 +4133,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3921,7 +4141,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
@@ -3930,7 +4150,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3938,7 +4158,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C25" t="s">
         <v>9</v>
@@ -3947,7 +4167,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3955,7 +4175,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C26" t="s">
         <v>9</v>
@@ -3964,7 +4184,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3972,7 +4192,7 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C27" t="s">
         <v>9</v>
@@ -3981,7 +4201,7 @@
         <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3989,7 +4209,7 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C28" t="s">
         <v>9</v>
@@ -3998,7 +4218,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -4006,7 +4226,7 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C29" t="s">
         <v>9</v>
@@ -4015,7 +4235,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -4023,7 +4243,7 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C30" t="s">
         <v>9</v>
@@ -4032,7 +4252,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -4040,7 +4260,7 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C31" t="s">
         <v>9</v>
@@ -4049,7 +4269,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -4057,7 +4277,7 @@
         <v>24</v>
       </c>
       <c r="B32" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C32" t="s">
         <v>9</v>
@@ -4066,7 +4286,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -4074,7 +4294,7 @@
         <v>24</v>
       </c>
       <c r="B33" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C33" t="s">
         <v>9</v>
@@ -4083,7 +4303,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -4091,7 +4311,7 @@
         <v>24</v>
       </c>
       <c r="B34" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C34" t="s">
         <v>9</v>
@@ -4100,7 +4320,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -4108,7 +4328,7 @@
         <v>24</v>
       </c>
       <c r="B35" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C35" t="s">
         <v>9</v>
@@ -4117,7 +4337,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -4125,7 +4345,7 @@
         <v>24</v>
       </c>
       <c r="B36" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C36" t="s">
         <v>9</v>
@@ -4134,7 +4354,7 @@
         <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -4142,7 +4362,7 @@
         <v>24</v>
       </c>
       <c r="B37" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C37" t="s">
         <v>9</v>
@@ -4151,7 +4371,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -4159,7 +4379,7 @@
         <v>24</v>
       </c>
       <c r="B38" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C38" t="s">
         <v>9</v>
@@ -4176,7 +4396,7 @@
         <v>24</v>
       </c>
       <c r="B39" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C39" t="s">
         <v>9</v>
@@ -4193,7 +4413,7 @@
         <v>45</v>
       </c>
       <c r="B40" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C40" t="s">
         <v>9</v>
@@ -4202,7 +4422,7 @@
         <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -4210,7 +4430,7 @@
         <v>72</v>
       </c>
       <c r="B41" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C41" t="s">
         <v>9</v>
@@ -4219,12 +4439,12 @@
         <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -4262,7 +4482,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -4274,10 +4494,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -4297,7 +4517,7 @@
         <v>99</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4317,15 +4537,15 @@
         <v>100</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/eq_log/general equipment log.xlsx
+++ b/eq_log/general equipment log.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="219">
   <si>
     <t>дата</t>
   </si>
@@ -524,6 +524,57 @@
   </si>
   <si>
     <t>600014</t>
+  </si>
+  <si>
+    <t>06/03/2018</t>
+  </si>
+  <si>
+    <t>80001841</t>
+  </si>
+  <si>
+    <t>1201</t>
+  </si>
+  <si>
+    <t>1202</t>
+  </si>
+  <si>
+    <t>1203</t>
+  </si>
+  <si>
+    <t>1204</t>
+  </si>
+  <si>
+    <t>1205</t>
+  </si>
+  <si>
+    <t>1206</t>
+  </si>
+  <si>
+    <t>1207</t>
+  </si>
+  <si>
+    <t>1208</t>
+  </si>
+  <si>
+    <t>1209</t>
+  </si>
+  <si>
+    <t>1210</t>
+  </si>
+  <si>
+    <t>1211</t>
+  </si>
+  <si>
+    <t>1212</t>
+  </si>
+  <si>
+    <t>1220</t>
+  </si>
+  <si>
+    <t>Не вірна довжина проводу</t>
+  </si>
+  <si>
+    <t>1230</t>
   </si>
   <si>
     <t>номер зварки</t>
@@ -3167,7 +3218,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
@@ -3706,6 +3757,278 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
+        <v>169</v>
+      </c>
+      <c r="B31" t="s">
+        <v>170</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>169</v>
+      </c>
+      <c r="B32" t="s">
+        <v>170</v>
+      </c>
+      <c r="C32" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>169</v>
+      </c>
+      <c r="B33" t="s">
+        <v>170</v>
+      </c>
+      <c r="C33" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>169</v>
+      </c>
+      <c r="B34" t="s">
+        <v>170</v>
+      </c>
+      <c r="C34" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>169</v>
+      </c>
+      <c r="B35" t="s">
+        <v>170</v>
+      </c>
+      <c r="C35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>169</v>
+      </c>
+      <c r="B36" t="s">
+        <v>170</v>
+      </c>
+      <c r="C36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>169</v>
+      </c>
+      <c r="B37" t="s">
+        <v>170</v>
+      </c>
+      <c r="C37" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>169</v>
+      </c>
+      <c r="B38" t="s">
+        <v>170</v>
+      </c>
+      <c r="C38" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>169</v>
+      </c>
+      <c r="B39" t="s">
+        <v>170</v>
+      </c>
+      <c r="C39" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>169</v>
+      </c>
+      <c r="B40" t="s">
+        <v>170</v>
+      </c>
+      <c r="C40" t="s">
+        <v>75</v>
+      </c>
+      <c r="D40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>169</v>
+      </c>
+      <c r="B41" t="s">
+        <v>170</v>
+      </c>
+      <c r="C41" t="s">
+        <v>75</v>
+      </c>
+      <c r="D41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>169</v>
+      </c>
+      <c r="B42" t="s">
+        <v>170</v>
+      </c>
+      <c r="C42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" t="s">
+        <v>33</v>
+      </c>
+      <c r="E42" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>169</v>
+      </c>
+      <c r="B43" t="s">
+        <v>170</v>
+      </c>
+      <c r="C43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" t="s">
+        <v>33</v>
+      </c>
+      <c r="E43" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>169</v>
+      </c>
+      <c r="B44" t="s">
+        <v>170</v>
+      </c>
+      <c r="C44" t="s">
+        <v>75</v>
+      </c>
+      <c r="D44" t="s">
+        <v>33</v>
+      </c>
+      <c r="E44" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>169</v>
+      </c>
+      <c r="B45" t="s">
+        <v>170</v>
+      </c>
+      <c r="C45" t="s">
+        <v>75</v>
+      </c>
+      <c r="D45" t="s">
+        <v>33</v>
+      </c>
+      <c r="E45" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>169</v>
+      </c>
+      <c r="B46" t="s">
+        <v>170</v>
+      </c>
+      <c r="C46" t="s">
+        <v>75</v>
+      </c>
+      <c r="D46" t="s">
+        <v>184</v>
+      </c>
+      <c r="E46" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3744,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -3759,7 +4082,7 @@
         <v>139</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3767,7 +4090,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>43</v>
@@ -3784,7 +4107,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>9</v>
@@ -3801,10 +4124,10 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="C4" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -3818,10 +4141,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="C5" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -3835,7 +4158,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -3852,7 +4175,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -3869,7 +4192,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -3886,7 +4209,7 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -3903,7 +4226,7 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
@@ -3920,7 +4243,7 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
@@ -3937,7 +4260,7 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
@@ -3954,7 +4277,7 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
@@ -3963,7 +4286,7 @@
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -3971,7 +4294,7 @@
         <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
@@ -3980,7 +4303,7 @@
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -3988,7 +4311,7 @@
         <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
@@ -3997,7 +4320,7 @@
         <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -4005,7 +4328,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="C16" t="s">
         <v>43</v>
@@ -4014,7 +4337,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -4022,7 +4345,7 @@
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="C17" t="s">
         <v>43</v>
@@ -4031,7 +4354,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -4039,7 +4362,7 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="C18" t="s">
         <v>43</v>
@@ -4056,7 +4379,7 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="C19" t="s">
         <v>43</v>
@@ -4065,7 +4388,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -4073,7 +4396,7 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="C20" t="s">
         <v>43</v>
@@ -4082,7 +4405,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -4090,7 +4413,7 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="C21" t="s">
         <v>43</v>
@@ -4099,7 +4422,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -4107,7 +4430,7 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
@@ -4116,7 +4439,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -4124,7 +4447,7 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
@@ -4133,7 +4456,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -4141,7 +4464,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
@@ -4150,7 +4473,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -4158,7 +4481,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="C25" t="s">
         <v>9</v>
@@ -4167,7 +4490,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -4175,7 +4498,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="C26" t="s">
         <v>9</v>
@@ -4184,7 +4507,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -4192,7 +4515,7 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="C27" t="s">
         <v>9</v>
@@ -4209,7 +4532,7 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="C28" t="s">
         <v>9</v>
@@ -4226,7 +4549,7 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="C29" t="s">
         <v>9</v>
@@ -4235,7 +4558,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -4243,7 +4566,7 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="C30" t="s">
         <v>9</v>
@@ -4252,7 +4575,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -4260,7 +4583,7 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="C31" t="s">
         <v>9</v>
@@ -4269,7 +4592,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -4277,7 +4600,7 @@
         <v>24</v>
       </c>
       <c r="B32" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="C32" t="s">
         <v>9</v>
@@ -4286,7 +4609,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -4294,7 +4617,7 @@
         <v>24</v>
       </c>
       <c r="B33" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="C33" t="s">
         <v>9</v>
@@ -4303,7 +4626,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -4311,7 +4634,7 @@
         <v>24</v>
       </c>
       <c r="B34" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="C34" t="s">
         <v>9</v>
@@ -4320,7 +4643,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -4328,7 +4651,7 @@
         <v>24</v>
       </c>
       <c r="B35" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="C35" t="s">
         <v>9</v>
@@ -4337,7 +4660,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -4345,7 +4668,7 @@
         <v>24</v>
       </c>
       <c r="B36" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="C36" t="s">
         <v>9</v>
@@ -4354,7 +4677,7 @@
         <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -4362,7 +4685,7 @@
         <v>24</v>
       </c>
       <c r="B37" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="C37" t="s">
         <v>9</v>
@@ -4371,7 +4694,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -4379,7 +4702,7 @@
         <v>24</v>
       </c>
       <c r="B38" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="C38" t="s">
         <v>9</v>
@@ -4396,7 +4719,7 @@
         <v>24</v>
       </c>
       <c r="B39" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="C39" t="s">
         <v>9</v>
@@ -4413,7 +4736,7 @@
         <v>45</v>
       </c>
       <c r="B40" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="C40" t="s">
         <v>9</v>
@@ -4422,7 +4745,7 @@
         <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -4430,7 +4753,7 @@
         <v>72</v>
       </c>
       <c r="B41" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="C41" t="s">
         <v>9</v>
@@ -4439,7 +4762,7 @@
         <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -4482,7 +4805,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -4497,7 +4820,7 @@
         <v>139</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -4517,7 +4840,7 @@
         <v>99</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4537,7 +4860,7 @@
         <v>100</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4545,7 +4868,7 @@
         <v>137</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>

--- a/eq_log/general equipment log.xlsx
+++ b/eq_log/general equipment log.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="76">
   <si>
     <t>дата</t>
   </si>
@@ -73,6 +73,15 @@
     <t>3</t>
   </si>
   <si>
+    <t>27/03/2018</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>номер зварки</t>
   </si>
   <si>
@@ -103,15 +112,9 @@
     <t>Komax Twist BT 188 t / BT 188</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>Kabateck / Ondal</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>Асиметрія контакту</t>
   </si>
   <si>
@@ -125,6 +128,123 @@
   </si>
   <si>
     <t>25/03/2018</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
   </si>
 </sst>
 </file>
@@ -626,7 +746,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -706,6 +826,40 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -744,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>2</v>
@@ -759,7 +913,7 @@
         <v>9</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -767,13 +921,13 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
@@ -790,7 +944,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -814,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>2</v>
@@ -829,7 +983,7 @@
         <v>9</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -837,19 +991,19 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -857,19 +1011,19 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
       </c>
       <c r="E3" t="s">
         <v>17</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -877,7 +1031,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
@@ -886,10 +1040,10 @@
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -897,7 +1051,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
@@ -906,7 +1060,7 @@
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -914,7 +1068,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -923,7 +1077,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -931,7 +1085,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -940,7 +1094,7 @@
         <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -948,16 +1102,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -965,7 +1119,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
@@ -974,7 +1128,7 @@
         <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -982,7 +1136,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
@@ -991,7 +1145,7 @@
         <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -999,7 +1153,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
@@ -1008,7 +1162,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1016,16 +1170,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1033,7 +1187,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
@@ -1042,7 +1196,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1050,7 +1204,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
@@ -1059,7 +1213,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1067,7 +1221,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
@@ -1076,7 +1230,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1084,7 +1238,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
         <v>13</v>
@@ -1093,28 +1247,827 @@
         <v>14</v>
       </c>
       <c r="E16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" t="s">
         <v>35</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>18</v>
+      </c>
+      <c r="B44" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>18</v>
+      </c>
+      <c r="B46" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>18</v>
+      </c>
+      <c r="B47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C47" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
+        <v>18</v>
+      </c>
+      <c r="B48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C48" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>18</v>
+      </c>
+      <c r="B49" t="s">
+        <v>27</v>
+      </c>
+      <c r="C49" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>18</v>
+      </c>
+      <c r="B51" t="s">
+        <v>27</v>
+      </c>
+      <c r="C51" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>18</v>
+      </c>
+      <c r="B52" t="s">
+        <v>27</v>
+      </c>
+      <c r="C52" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
+        <v>18</v>
+      </c>
+      <c r="B53" t="s">
+        <v>27</v>
+      </c>
+      <c r="C53" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" t="s">
+        <v>14</v>
+      </c>
+      <c r="E53" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" t="s">
+        <v>18</v>
+      </c>
+      <c r="B54" t="s">
+        <v>27</v>
+      </c>
+      <c r="C54" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" t="s">
+        <v>18</v>
+      </c>
+      <c r="B55" t="s">
+        <v>27</v>
+      </c>
+      <c r="C55" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" t="s">
+        <v>18</v>
+      </c>
+      <c r="B56" t="s">
+        <v>27</v>
+      </c>
+      <c r="C56" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" t="s">
+        <v>18</v>
+      </c>
+      <c r="B57" t="s">
+        <v>27</v>
+      </c>
+      <c r="C57" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" t="s">
+        <v>14</v>
+      </c>
+      <c r="E57" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" t="s">
+        <v>18</v>
+      </c>
+      <c r="B58" t="s">
+        <v>27</v>
+      </c>
+      <c r="C58" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" t="s">
+        <v>18</v>
+      </c>
+      <c r="B59" t="s">
+        <v>27</v>
+      </c>
+      <c r="C59" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" t="s">
+        <v>18</v>
+      </c>
+      <c r="B60" t="s">
+        <v>27</v>
+      </c>
+      <c r="C60" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" t="s">
+        <v>14</v>
+      </c>
+      <c r="E60" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" t="s">
+        <v>18</v>
+      </c>
+      <c r="B61" t="s">
+        <v>27</v>
+      </c>
+      <c r="C61" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" t="s">
+        <v>14</v>
+      </c>
+      <c r="E61" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" t="s">
+        <v>18</v>
+      </c>
+      <c r="B62" t="s">
+        <v>27</v>
+      </c>
+      <c r="C62" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" t="s">
+        <v>14</v>
+      </c>
+      <c r="E62" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" t="s">
+        <v>18</v>
+      </c>
+      <c r="B63" t="s">
+        <v>27</v>
+      </c>
+      <c r="C63" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" t="s">
+        <v>14</v>
+      </c>
+      <c r="E63" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" t="s">
+        <v>18</v>
+      </c>
+      <c r="B64" t="s">
+        <v>27</v>
+      </c>
+      <c r="C64" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" t="s">
+        <v>14</v>
+      </c>
+      <c r="E64" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" t="s">
         <v>7</v>
       </c>
     </row>

--- a/eq_log/general equipment log.xlsx
+++ b/eq_log/general equipment log.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="79">
   <si>
     <t>дата</t>
   </si>
@@ -245,6 +245,15 @@
   </si>
   <si>
     <t>49</t>
+  </si>
+  <si>
+    <t>28/03/2018</t>
+  </si>
+  <si>
+    <t>Не відповідне скручення проводів</t>
+  </si>
+  <si>
+    <t>50</t>
   </si>
 </sst>
 </file>
@@ -944,7 +953,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:G66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2068,6 +2077,23 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
+        <v>76</v>
+      </c>
+      <c r="B65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C65" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" t="s">
+        <v>77</v>
+      </c>
+      <c r="E65" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" t="s">
         <v>7</v>
       </c>
     </row>

--- a/eq_log/general equipment log.xlsx
+++ b/eq_log/general equipment log.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="95">
   <si>
     <t>дата</t>
   </si>
@@ -254,6 +254,54 @@
   </si>
   <si>
     <t>50</t>
+  </si>
+  <si>
+    <t>29/03/2018</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
   </si>
 </sst>
 </file>
@@ -953,7 +1001,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G66"/>
+  <dimension ref="A1:G89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2094,6 +2142,397 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
+        <v>79</v>
+      </c>
+      <c r="B66" t="s">
+        <v>27</v>
+      </c>
+      <c r="C66" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" t="s">
+        <v>14</v>
+      </c>
+      <c r="E66" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" t="s">
+        <v>79</v>
+      </c>
+      <c r="B67" t="s">
+        <v>27</v>
+      </c>
+      <c r="C67" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" t="s">
+        <v>79</v>
+      </c>
+      <c r="B68" t="s">
+        <v>27</v>
+      </c>
+      <c r="C68" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" t="s">
+        <v>14</v>
+      </c>
+      <c r="E68" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" t="s">
+        <v>79</v>
+      </c>
+      <c r="B69" t="s">
+        <v>27</v>
+      </c>
+      <c r="C69" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" t="s">
+        <v>24</v>
+      </c>
+      <c r="E69" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" t="s">
+        <v>79</v>
+      </c>
+      <c r="B70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C70" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" t="s">
+        <v>24</v>
+      </c>
+      <c r="E70" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" t="s">
+        <v>79</v>
+      </c>
+      <c r="B71" t="s">
+        <v>27</v>
+      </c>
+      <c r="C71" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71" t="s">
+        <v>24</v>
+      </c>
+      <c r="E71" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" t="s">
+        <v>79</v>
+      </c>
+      <c r="B72" t="s">
+        <v>27</v>
+      </c>
+      <c r="C72" t="s">
+        <v>13</v>
+      </c>
+      <c r="D72" t="s">
+        <v>24</v>
+      </c>
+      <c r="E72" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" t="s">
+        <v>79</v>
+      </c>
+      <c r="B73" t="s">
+        <v>27</v>
+      </c>
+      <c r="C73" t="s">
+        <v>13</v>
+      </c>
+      <c r="D73" t="s">
+        <v>24</v>
+      </c>
+      <c r="E73" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" t="s">
+        <v>79</v>
+      </c>
+      <c r="B74" t="s">
+        <v>27</v>
+      </c>
+      <c r="C74" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74" t="s">
+        <v>24</v>
+      </c>
+      <c r="E74" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" t="s">
+        <v>79</v>
+      </c>
+      <c r="B75" t="s">
+        <v>27</v>
+      </c>
+      <c r="C75" t="s">
+        <v>13</v>
+      </c>
+      <c r="D75" t="s">
+        <v>24</v>
+      </c>
+      <c r="E75" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" t="s">
+        <v>79</v>
+      </c>
+      <c r="B76" t="s">
+        <v>27</v>
+      </c>
+      <c r="C76" t="s">
+        <v>13</v>
+      </c>
+      <c r="D76" t="s">
+        <v>24</v>
+      </c>
+      <c r="E76" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" t="s">
+        <v>79</v>
+      </c>
+      <c r="B77" t="s">
+        <v>27</v>
+      </c>
+      <c r="C77" t="s">
+        <v>13</v>
+      </c>
+      <c r="D77" t="s">
+        <v>24</v>
+      </c>
+      <c r="E77" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78" t="s">
+        <v>27</v>
+      </c>
+      <c r="C78" t="s">
+        <v>13</v>
+      </c>
+      <c r="D78" t="s">
+        <v>24</v>
+      </c>
+      <c r="E78" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" t="s">
+        <v>79</v>
+      </c>
+      <c r="B79" t="s">
+        <v>27</v>
+      </c>
+      <c r="C79" t="s">
+        <v>13</v>
+      </c>
+      <c r="D79" t="s">
+        <v>24</v>
+      </c>
+      <c r="E79" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>27</v>
+      </c>
+      <c r="C80" t="s">
+        <v>13</v>
+      </c>
+      <c r="D80" t="s">
+        <v>24</v>
+      </c>
+      <c r="E80" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" t="s">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>27</v>
+      </c>
+      <c r="C81" t="s">
+        <v>13</v>
+      </c>
+      <c r="D81" t="s">
+        <v>24</v>
+      </c>
+      <c r="E81" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" t="s">
+        <v>79</v>
+      </c>
+      <c r="B82" t="s">
+        <v>27</v>
+      </c>
+      <c r="C82" t="s">
+        <v>13</v>
+      </c>
+      <c r="D82" t="s">
+        <v>24</v>
+      </c>
+      <c r="E82" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" t="s">
+        <v>79</v>
+      </c>
+      <c r="B83" t="s">
+        <v>27</v>
+      </c>
+      <c r="C83" t="s">
+        <v>13</v>
+      </c>
+      <c r="D83" t="s">
+        <v>24</v>
+      </c>
+      <c r="E83" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" t="s">
+        <v>79</v>
+      </c>
+      <c r="B84" t="s">
+        <v>27</v>
+      </c>
+      <c r="C84" t="s">
+        <v>13</v>
+      </c>
+      <c r="D84" t="s">
+        <v>24</v>
+      </c>
+      <c r="E84" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" t="s">
+        <v>79</v>
+      </c>
+      <c r="B85" t="s">
+        <v>27</v>
+      </c>
+      <c r="C85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D85" t="s">
+        <v>24</v>
+      </c>
+      <c r="E85" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" t="s">
+        <v>79</v>
+      </c>
+      <c r="B86" t="s">
+        <v>27</v>
+      </c>
+      <c r="C86" t="s">
+        <v>13</v>
+      </c>
+      <c r="D86" t="s">
+        <v>24</v>
+      </c>
+      <c r="E86" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" t="s">
+        <v>79</v>
+      </c>
+      <c r="B87" t="s">
+        <v>27</v>
+      </c>
+      <c r="C87" t="s">
+        <v>13</v>
+      </c>
+      <c r="D87" t="s">
+        <v>24</v>
+      </c>
+      <c r="E87" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" t="s">
+        <v>79</v>
+      </c>
+      <c r="B88" t="s">
+        <v>27</v>
+      </c>
+      <c r="C88" t="s">
+        <v>13</v>
+      </c>
+      <c r="D88" t="s">
+        <v>24</v>
+      </c>
+      <c r="E88" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" t="s">
         <v>7</v>
       </c>
     </row>

--- a/eq_log/general equipment log.xlsx
+++ b/eq_log/general equipment log.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="98">
   <si>
     <t>дата</t>
   </si>
@@ -302,6 +302,15 @@
   </si>
   <si>
     <t>65</t>
+  </si>
+  <si>
+    <t>Пошкодження поверхні контакту</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
   </si>
 </sst>
 </file>
@@ -1001,7 +1010,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G89"/>
+  <dimension ref="A1:G91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2533,6 +2542,40 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
+        <v>79</v>
+      </c>
+      <c r="B89" t="s">
+        <v>27</v>
+      </c>
+      <c r="C89" t="s">
+        <v>13</v>
+      </c>
+      <c r="D89" t="s">
+        <v>95</v>
+      </c>
+      <c r="E89" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" t="s">
+        <v>79</v>
+      </c>
+      <c r="B90" t="s">
+        <v>27</v>
+      </c>
+      <c r="C90" t="s">
+        <v>13</v>
+      </c>
+      <c r="D90" t="s">
+        <v>95</v>
+      </c>
+      <c r="E90" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" t="s">
         <v>7</v>
       </c>
     </row>

--- a/eq_log/general equipment log.xlsx
+++ b/eq_log/general equipment log.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="100">
   <si>
     <t>дата</t>
   </si>
@@ -311,6 +311,12 @@
   </si>
   <si>
     <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
   </si>
 </sst>
 </file>
@@ -1010,7 +1016,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G91"/>
+  <dimension ref="A1:G93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2576,6 +2582,40 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
+        <v>79</v>
+      </c>
+      <c r="B91" t="s">
+        <v>27</v>
+      </c>
+      <c r="C91" t="s">
+        <v>13</v>
+      </c>
+      <c r="D91" t="s">
+        <v>24</v>
+      </c>
+      <c r="E91" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" t="s">
+        <v>79</v>
+      </c>
+      <c r="B92" t="s">
+        <v>27</v>
+      </c>
+      <c r="C92" t="s">
+        <v>13</v>
+      </c>
+      <c r="D92" t="s">
+        <v>24</v>
+      </c>
+      <c r="E92" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" t="s">
         <v>7</v>
       </c>
     </row>
